--- a/data/Tricking Data Visualization Project Survey (Responses).xlsx
+++ b/data/Tricking Data Visualization Project Survey (Responses).xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mantism/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mikael/Documents/TrickingData/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="1460" windowWidth="37500" windowHeight="23240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gender" sheetId="4" r:id="rId1"/>
     <sheet name="Discovery to Number of Years" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId3"/>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Most Popular Tricks" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId5"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId6"/>
+    <sheet name="Most Popular Tricks" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Form Responses 1'!$A$1:$P$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Form Responses 1'!$A$1:$P$327</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId6"/>
+    <pivotCache cacheId="10" r:id="rId8"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="1272">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3941,7 +3940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3959,6 +3958,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4591,16 +4591,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2069661376"/>
-        <c:axId val="-2109623936"/>
+        <c:axId val="-2092705856"/>
+        <c:axId val="-2117830368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2069661376"/>
+        <c:axId val="-2092705856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4637,7 +4638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109623936"/>
+        <c:crossAx val="-2117830368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4645,7 +4646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2109623936"/>
+        <c:axId val="-2117830368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4665,6 +4666,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4695,7 +4697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069661376"/>
+        <c:crossAx val="-2092705856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5377,7 +5379,57 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-03-24T12:37:14" maxDate="2016-04-12T09:23:20"/>
     </cacheField>
     <cacheField name="What country are you from?" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="49">
+        <s v="United States (USA)"/>
+        <s v="Morocco"/>
+        <s v="Mexico"/>
+        <s v="Chile"/>
+        <s v="Spain"/>
+        <s v="Antigua and Barbuda"/>
+        <s v="Czech Republic"/>
+        <s v="Lithuania"/>
+        <s v="Hungary"/>
+        <s v="Netherlands"/>
+        <s v="Sweden"/>
+        <s v="Germany"/>
+        <s v="Australia"/>
+        <s v="Canada"/>
+        <s v="Peru"/>
+        <s v="Malaysia"/>
+        <s v="Costa Rica"/>
+        <s v="Brazil"/>
+        <s v="Singapore"/>
+        <s v="Azerbaijan"/>
+        <s v="Austria"/>
+        <s v="New Zealand"/>
+        <s v="Mauritius"/>
+        <s v="United Kingdom"/>
+        <s v="France"/>
+        <s v="India"/>
+        <s v="Finland"/>
+        <s v="Greece"/>
+        <s v="Norway"/>
+        <s v="Switzerland"/>
+        <s v="Italy"/>
+        <s v="Israel"/>
+        <s v="Tunisia"/>
+        <s v="Korea, South"/>
+        <s v="Argentina"/>
+        <s v="Serbia"/>
+        <s v="Ireland"/>
+        <s v="South Africa"/>
+        <s v="Guatemala"/>
+        <s v="Uruguay"/>
+        <s v="Thailand"/>
+        <s v="Romania"/>
+        <s v="Hong Kong"/>
+        <s v="Denmark"/>
+        <s v="Belgium"/>
+        <s v="Jamaica"/>
+        <s v="Portugal"/>
+        <s v="Estonia"/>
+        <s v="Slovakia"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="What city are you from? " numFmtId="0">
       <sharedItems/>
@@ -5438,7 +5490,32 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="How many hours a week do you train? " numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1738"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1738" count="24">
+        <s v="2-4"/>
+        <s v="4-6"/>
+        <s v="8-10"/>
+        <s v="6-8"/>
+        <s v="10-12"/>
+        <n v="1738"/>
+        <n v="0"/>
+        <s v="Three sessions a week, tricking with my students for 4.5 hours a week, 4 hours of stretching weekly, 4 hours of resistance/corrective training."/>
+        <s v="1-2"/>
+        <s v="10-15 hours for sessions, lifting for tricking 6 times a week, trampoline training 1 hr"/>
+        <s v="curently i am injured but usually 6-8 "/>
+        <s v="None, I'm injured atm"/>
+        <s v="None anymore :("/>
+        <s v="None due to injury."/>
+        <s v="not anymore"/>
+        <n v="15"/>
+        <n v="18"/>
+        <s v="It's an on and off type of situation. "/>
+        <s v="Depends on the week and or if injury or sickness is involved. I would always like to aim for atleast 10 hours a week with maintaining all other responsibilities"/>
+        <s v="1-2 now, used to be 6-8, but injuries man..."/>
+        <s v="No longer training daily"/>
+        <s v="I usually only tricking during school breaks or when I visit home for the weekend (Ex: Winter Break, etc)"/>
+        <s v="Casually, 1,5 hours a week"/>
+        <s v="2h tricks 3h calisthenics"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Do you upload videos to YouTube?" numFmtId="0">
       <sharedItems/>
@@ -5471,7 +5548,7 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="326">
   <r>
     <d v="2016-03-24T12:37:14"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Centreville"/>
     <x v="0"/>
     <x v="0"/>
@@ -5479,7 +5556,7 @@
     <s v="Double b-twist"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="NinjaMikael"/>
     <s v="Yes"/>
@@ -5489,7 +5566,7 @@
   </r>
   <r>
     <d v="2016-03-24T12:51:29"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Sterling, VA"/>
     <x v="0"/>
     <x v="0"/>
@@ -5497,7 +5574,7 @@
     <s v="Double Btwist "/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -5507,7 +5584,7 @@
   </r>
   <r>
     <d v="2016-03-24T14:29:46"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Arlington, Va"/>
     <x v="1"/>
     <x v="0"/>
@@ -5515,7 +5592,7 @@
     <s v="Swipe knife "/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Gabrielaguadam "/>
     <s v="Yes"/>
@@ -5525,7 +5602,7 @@
   </r>
   <r>
     <d v="2016-03-24T14:33:29"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Glen Burnie"/>
     <x v="0"/>
     <x v="0"/>
@@ -5533,7 +5610,7 @@
     <s v="Cart full hyper"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Cameron Whittington"/>
     <s v="Yes"/>
@@ -5543,7 +5620,7 @@
   </r>
   <r>
     <d v="2016-03-24T14:37:56"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Arlington"/>
     <x v="1"/>
     <x v="0"/>
@@ -5551,7 +5628,7 @@
     <s v="aerial"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -5561,7 +5638,7 @@
   </r>
   <r>
     <d v="2016-03-24T19:53:22"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Denver"/>
     <x v="0"/>
     <x v="0"/>
@@ -5569,7 +5646,7 @@
     <s v="Double btwist"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Alexkerwood"/>
     <s v="Yes"/>
@@ -5579,7 +5656,7 @@
   </r>
   <r>
     <d v="2016-03-24T19:54:37"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Short Hills"/>
     <x v="0"/>
     <x v="0"/>
@@ -5587,7 +5664,7 @@
     <s v="Cart front"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -5597,7 +5674,7 @@
   </r>
   <r>
     <d v="2016-03-24T19:56:11"/>
-    <s v="Morocco"/>
+    <x v="1"/>
     <s v="casablanca"/>
     <x v="0"/>
     <x v="1"/>
@@ -5605,7 +5682,7 @@
     <s v="Scoot full"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -5615,7 +5692,7 @@
   </r>
   <r>
     <d v="2016-03-24T19:57:40"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Knoxville, Illinois"/>
     <x v="0"/>
     <x v="2"/>
@@ -5623,7 +5700,7 @@
     <s v="360 dive roll"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="uniquelyjones"/>
     <s v="No"/>
@@ -5633,7 +5710,7 @@
   </r>
   <r>
     <d v="2016-03-24T19:59:38"/>
-    <s v="Mexico"/>
+    <x v="2"/>
     <s v="Guanajuato"/>
     <x v="0"/>
     <x v="0"/>
@@ -5641,7 +5718,7 @@
     <s v="Corkscrew"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -5651,7 +5728,7 @@
   </r>
   <r>
     <d v="2016-03-24T19:59:50"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Boston"/>
     <x v="0"/>
     <x v="0"/>
@@ -5659,7 +5736,7 @@
     <s v="Cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="NavyRCdude"/>
     <s v="No"/>
@@ -5669,7 +5746,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:00:04"/>
-    <s v="Chile"/>
+    <x v="3"/>
     <s v="San Fernando"/>
     <x v="0"/>
     <x v="0"/>
@@ -5677,7 +5754,7 @@
     <s v="Snapu"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -5687,7 +5764,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:00:46"/>
-    <s v="Chile"/>
+    <x v="3"/>
     <s v="Santiago"/>
     <x v="0"/>
     <x v="1"/>
@@ -5695,7 +5772,7 @@
     <s v="Cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <s v="Javier Israel Govea "/>
     <s v="Yes"/>
@@ -5705,7 +5782,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:02:54"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Baltimore"/>
     <x v="0"/>
     <x v="0"/>
@@ -5713,7 +5790,7 @@
     <s v="Sideswipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -5723,7 +5800,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:03:30"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Fort Myers, FL"/>
     <x v="0"/>
     <x v="3"/>
@@ -5731,7 +5808,7 @@
     <s v="Double atwist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="jasonconnor96"/>
     <s v="Yes"/>
@@ -5741,7 +5818,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:03:42"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Miami"/>
     <x v="0"/>
     <x v="3"/>
@@ -5749,7 +5826,7 @@
     <s v="Sideswipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -5759,7 +5836,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:04:14"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="New windsor "/>
     <x v="0"/>
     <x v="4"/>
@@ -5767,7 +5844,7 @@
     <s v="Triple full"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Skillfullninja"/>
     <s v="Yes"/>
@@ -5777,7 +5854,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:06:44"/>
-    <s v="Spain"/>
+    <x v="4"/>
     <s v="Valencia"/>
     <x v="0"/>
     <x v="4"/>
@@ -5785,7 +5862,7 @@
     <s v="c720"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -5795,7 +5872,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:08:36"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Chattanooga"/>
     <x v="0"/>
     <x v="4"/>
@@ -5803,7 +5880,7 @@
     <s v="Cork shuriken"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Adam bell"/>
     <s v="Yes"/>
@@ -5813,7 +5890,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:10:25"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Denver"/>
     <x v="0"/>
     <x v="0"/>
@@ -5821,7 +5898,7 @@
     <s v="Illusion-twist"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="GrumpTricks"/>
     <s v="Yes"/>
@@ -5831,7 +5908,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:10:28"/>
-    <s v="Antigua and Barbuda"/>
+    <x v="5"/>
     <s v="Boston"/>
     <x v="0"/>
     <x v="4"/>
@@ -5839,7 +5916,7 @@
     <s v="Full snapu"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="James East"/>
     <s v="Yes"/>
@@ -5849,7 +5926,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:11:41"/>
-    <s v="Czech Republic"/>
+    <x v="6"/>
     <s v="Zábřeh"/>
     <x v="0"/>
     <x v="1"/>
@@ -5857,7 +5934,7 @@
     <s v="td raiz"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCui9QDK6QmnRxpg6_5hpFfQ"/>
     <s v="No"/>
@@ -5867,7 +5944,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:13:12"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Annandale"/>
     <x v="0"/>
     <x v="3"/>
@@ -5875,7 +5952,7 @@
     <s v="B-twist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -5885,7 +5962,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:17:32"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Milpitas "/>
     <x v="0"/>
     <x v="0"/>
@@ -5893,7 +5970,7 @@
     <n v="540"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="ubaycentral"/>
     <s v="Yes"/>
@@ -5903,7 +5980,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:18:39"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Wiggins"/>
     <x v="0"/>
     <x v="1"/>
@@ -5911,7 +5988,7 @@
     <s v="swing1080"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -5921,7 +5998,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:19:48"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Murrieta "/>
     <x v="0"/>
     <x v="1"/>
@@ -5929,7 +6006,7 @@
     <s v="Shuriken Twist"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="Tkpk747"/>
     <s v="Yes"/>
@@ -5939,7 +6016,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:25:57"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Hemet"/>
     <x v="0"/>
     <x v="4"/>
@@ -5947,7 +6024,7 @@
     <s v="rodeo shuriken"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="mojotricking"/>
     <s v="Yes"/>
@@ -5957,7 +6034,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:34:36"/>
-    <s v="Lithuania"/>
+    <x v="7"/>
     <s v="Siauliai"/>
     <x v="0"/>
     <x v="4"/>
@@ -5965,7 +6042,7 @@
     <s v="Clean"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/MariusTricking"/>
     <s v="No"/>
@@ -5975,7 +6052,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:35:06"/>
-    <s v="Hungary"/>
+    <x v="8"/>
     <s v="Gödöllő"/>
     <x v="0"/>
     <x v="4"/>
@@ -5983,7 +6060,7 @@
     <s v="aerial"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/szmate1618"/>
     <s v="No"/>
@@ -5993,7 +6070,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:38:00"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Lincoln, NE"/>
     <x v="0"/>
     <x v="3"/>
@@ -6001,7 +6078,7 @@
     <s v="B Kick"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6011,7 +6088,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:40:57"/>
-    <s v="Netherlands"/>
+    <x v="9"/>
     <s v="Amsterdam"/>
     <x v="0"/>
     <x v="4"/>
@@ -6019,7 +6096,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <s v="(Videos unlisted)"/>
     <s v="No"/>
@@ -6029,7 +6106,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:41:04"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Pittsburgh "/>
     <x v="0"/>
     <x v="1"/>
@@ -6037,7 +6114,7 @@
     <s v="Cork hyper"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6047,7 +6124,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:45:27"/>
-    <s v="Sweden"/>
+    <x v="10"/>
     <s v="Gothenburg"/>
     <x v="0"/>
     <x v="4"/>
@@ -6055,7 +6132,7 @@
     <s v="aerial"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6065,7 +6142,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:45:29"/>
-    <s v="Netherlands"/>
+    <x v="9"/>
     <s v="Almere"/>
     <x v="0"/>
     <x v="3"/>
@@ -6073,7 +6150,7 @@
     <s v="Cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6083,7 +6160,7 @@
   </r>
   <r>
     <d v="2016-03-24T20:55:48"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Wuppertal"/>
     <x v="0"/>
     <x v="3"/>
@@ -6091,7 +6168,7 @@
     <s v="aerial"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6101,7 +6178,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:03:10"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Deggendorf"/>
     <x v="0"/>
     <x v="4"/>
@@ -6109,7 +6186,7 @@
     <s v="540 Kick"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UC-dWy0N3prIW-8CyxvJxjYg"/>
     <s v="Yes"/>
@@ -6119,7 +6196,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:09:25"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Centreville"/>
     <x v="1"/>
     <x v="0"/>
@@ -6127,7 +6204,7 @@
     <s v="Backflip!!!"/>
     <s v="Yes"/>
     <n v="0"/>
-    <n v="1738"/>
+    <x v="5"/>
     <s v="Yes"/>
     <s v="Mikael Mantis"/>
     <s v="Yes"/>
@@ -6137,7 +6214,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:17:25"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Sydney"/>
     <x v="0"/>
     <x v="5"/>
@@ -6145,7 +6222,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="http://youtube.com/DalJame"/>
     <s v="No"/>
@@ -6155,7 +6232,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:17:49"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Tallahassee"/>
     <x v="0"/>
     <x v="0"/>
@@ -6163,7 +6240,7 @@
     <s v="Snapuswipe"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="ramenfood"/>
     <s v="Yes"/>
@@ -6173,7 +6250,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:26:27"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Port Jefferson Station"/>
     <x v="0"/>
     <x v="2"/>
@@ -6181,7 +6258,7 @@
     <s v="J-step cork!"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Kristian Schoenhaar"/>
     <s v="Yes"/>
@@ -6191,7 +6268,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:29:15"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Centreville"/>
     <x v="0"/>
     <x v="0"/>
@@ -6199,7 +6276,7 @@
     <s v="Double leg"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <n v="0"/>
+    <x v="6"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6209,7 +6286,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:29:54"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Portland, Oregon"/>
     <x v="0"/>
     <x v="4"/>
@@ -6217,7 +6294,7 @@
     <s v="Cheat 9"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="Three sessions a week, tricking with my students for 4.5 hours a week, 4 hours of stretching weekly, 4 hours of resistance/corrective training."/>
+    <x v="7"/>
     <s v="Yes"/>
     <s v="It's not up yet, but my new channel will be called TyrannoCyrusRex"/>
     <s v="Yes"/>
@@ -6227,7 +6304,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:34:48"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Enfield"/>
     <x v="0"/>
     <x v="0"/>
@@ -6235,7 +6312,7 @@
     <s v="Full snapu and illusion twist"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6245,7 +6322,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:35:47"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Renton"/>
     <x v="0"/>
     <x v="0"/>
@@ -6253,7 +6330,7 @@
     <s v="B twist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6263,7 +6340,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:38:56"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Lancaster"/>
     <x v="0"/>
     <x v="1"/>
@@ -6271,7 +6348,7 @@
     <s v="dleg btwist"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="ninjawarrior2019 Not tricking, but freerunning"/>
     <s v="Yes"/>
@@ -6281,7 +6358,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:47:50"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Lorton"/>
     <x v="0"/>
     <x v="0"/>
@@ -6289,7 +6366,7 @@
     <s v="Full D-leg"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Lockerbb"/>
     <s v="Yes"/>
@@ -6299,7 +6376,7 @@
   </r>
   <r>
     <d v="2016-03-24T21:55:53"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Joliet"/>
     <x v="0"/>
     <x v="0"/>
@@ -6307,7 +6384,7 @@
     <s v="Snapuswipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Andrew Kohrt"/>
     <s v="Yes"/>
@@ -6317,7 +6394,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:01:45"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Tillsonburg"/>
     <x v="0"/>
     <x v="4"/>
@@ -6325,7 +6402,7 @@
     <s v="Raiz"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <m/>
     <s v="No"/>
@@ -6335,7 +6412,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:05:59"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Montreal, QC"/>
     <x v="0"/>
     <x v="0"/>
@@ -6343,7 +6420,7 @@
     <s v="Basic 540"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6353,7 +6430,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:06:47"/>
-    <s v="Peru"/>
+    <x v="14"/>
     <s v="Lima"/>
     <x v="0"/>
     <x v="4"/>
@@ -6361,7 +6438,7 @@
     <s v="Raiz and cheat 720"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6371,7 +6448,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:14:36"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Charlotte "/>
     <x v="0"/>
     <x v="0"/>
@@ -6379,7 +6456,7 @@
     <s v="Jack Knife "/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Urbanrevolutionma"/>
     <s v="Yes"/>
@@ -6389,7 +6466,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:17:47"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Vancouver"/>
     <x v="0"/>
     <x v="0"/>
@@ -6397,7 +6474,7 @@
     <s v="Hook kick"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6407,7 +6484,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:27:36"/>
-    <s v="Spain"/>
+    <x v="4"/>
     <s v="Valencia"/>
     <x v="0"/>
     <x v="1"/>
@@ -6415,7 +6492,7 @@
     <s v="Webster"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Brandon Nlt"/>
     <s v="Yes"/>
@@ -6425,7 +6502,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:28:12"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Boston, MA"/>
     <x v="0"/>
     <x v="4"/>
@@ -6433,7 +6510,7 @@
     <s v="Cart full"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6443,7 +6520,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:30:31"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Montréal"/>
     <x v="0"/>
     <x v="4"/>
@@ -6451,7 +6528,7 @@
     <s v="backflip"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6461,7 +6538,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:31:47"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Montreal"/>
     <x v="0"/>
     <x v="3"/>
@@ -6469,7 +6546,7 @@
     <s v="double cork"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="J Lo"/>
     <s v="Yes"/>
@@ -6479,7 +6556,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:34:06"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Boston"/>
     <x v="0"/>
     <x v="1"/>
@@ -6487,7 +6564,7 @@
     <s v="Pop Flash"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6497,7 +6574,7 @@
   </r>
   <r>
     <d v="2016-03-24T22:53:29"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Hunterdon county NJ"/>
     <x v="1"/>
     <x v="0"/>
@@ -6505,7 +6582,7 @@
     <s v="Ariel "/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Bianca Catalano "/>
     <s v="Yes"/>
@@ -6515,7 +6592,7 @@
   </r>
   <r>
     <d v="2016-03-24T23:00:29"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Denver"/>
     <x v="1"/>
     <x v="6"/>
@@ -6523,7 +6600,7 @@
     <s v="Idk but my favorite transition is front swing thru"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="10-15 hours for sessions, lifting for tricking 6 times a week, trampoline training 1 hr"/>
+    <x v="9"/>
     <s v="Yes"/>
     <s v="Ashleyadams1080"/>
     <s v="Yes"/>
@@ -6533,7 +6610,7 @@
   </r>
   <r>
     <d v="2016-03-24T23:25:46"/>
-    <s v="Malaysia"/>
+    <x v="15"/>
     <s v="JOHOR"/>
     <x v="0"/>
     <x v="0"/>
@@ -6541,7 +6618,7 @@
     <n v="540"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6551,7 +6628,7 @@
   </r>
   <r>
     <d v="2016-03-24T23:29:27"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Montréal"/>
     <x v="0"/>
     <x v="3"/>
@@ -6559,7 +6636,7 @@
     <s v="All of them"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="ced00003"/>
     <s v="Yes"/>
@@ -6569,7 +6646,7 @@
   </r>
   <r>
     <d v="2016-03-24T23:35:10"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Tucson, AZ"/>
     <x v="0"/>
     <x v="3"/>
@@ -6577,7 +6654,7 @@
     <s v="540 Hyperhook"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6587,7 +6664,7 @@
   </r>
   <r>
     <d v="2016-03-24T23:56:31"/>
-    <s v="Costa Rica"/>
+    <x v="16"/>
     <s v="San Jose"/>
     <x v="0"/>
     <x v="7"/>
@@ -6595,7 +6672,7 @@
     <s v="Rocketboi"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="mtorres2323"/>
     <s v="Yes"/>
@@ -6605,7 +6682,7 @@
   </r>
   <r>
     <d v="2016-03-25T00:06:11"/>
-    <s v="Brazil"/>
+    <x v="17"/>
     <s v="Fortaleza"/>
     <x v="0"/>
     <x v="4"/>
@@ -6613,7 +6690,7 @@
     <s v="b-twist shuriken "/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/TainanPRB"/>
     <s v="Yes"/>
@@ -6623,7 +6700,7 @@
   </r>
   <r>
     <d v="2016-03-25T00:10:42"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Washington, D.C."/>
     <x v="0"/>
     <x v="1"/>
@@ -6631,7 +6708,7 @@
     <s v="Corkscrew"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6641,7 +6718,7 @@
   </r>
   <r>
     <d v="2016-03-25T00:19:30"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Alexandria"/>
     <x v="0"/>
     <x v="0"/>
@@ -6649,7 +6726,7 @@
     <s v="Jacknife"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6659,7 +6736,7 @@
   </r>
   <r>
     <d v="2016-03-25T00:26:42"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Centereach, NY"/>
     <x v="0"/>
     <x v="4"/>
@@ -6667,7 +6744,7 @@
     <s v="cork snapuswipe"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/kinetic"/>
     <s v="Yes"/>
@@ -6677,7 +6754,7 @@
   </r>
   <r>
     <d v="2016-03-25T00:52:46"/>
-    <s v="Singapore"/>
+    <x v="18"/>
     <s v="Singapore"/>
     <x v="0"/>
     <x v="0"/>
@@ -6685,7 +6762,7 @@
     <s v="540 kick"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/JKHHfilms"/>
     <s v="Yes"/>
@@ -6695,7 +6772,7 @@
   </r>
   <r>
     <d v="2016-03-25T00:56:10"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Cheyenne"/>
     <x v="0"/>
     <x v="1"/>
@@ -6703,7 +6780,7 @@
     <s v="Double Cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/JBatesVideos"/>
     <s v="No"/>
@@ -6713,7 +6790,7 @@
   </r>
   <r>
     <d v="2016-03-25T01:05:40"/>
-    <s v="Singapore"/>
+    <x v="18"/>
     <s v="Singapore"/>
     <x v="0"/>
     <x v="1"/>
@@ -6721,7 +6798,7 @@
     <s v="GMS"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Kendrick Choo"/>
     <s v="Yes"/>
@@ -6731,7 +6808,7 @@
   </r>
   <r>
     <d v="2016-03-25T01:11:28"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Kassel"/>
     <x v="0"/>
     <x v="2"/>
@@ -6739,7 +6816,7 @@
     <s v="Gainer switch"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6749,7 +6826,7 @@
   </r>
   <r>
     <d v="2016-03-25T01:39:16"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Frankfort"/>
     <x v="0"/>
     <x v="0"/>
@@ -6757,7 +6834,7 @@
     <s v="Touchdown Raiz"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Zach Hellriegel"/>
     <s v="Yes"/>
@@ -6767,7 +6844,7 @@
   </r>
   <r>
     <d v="2016-03-25T01:43:15"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Kalamazoo"/>
     <x v="0"/>
     <x v="5"/>
@@ -6775,7 +6852,7 @@
     <s v="sing dub"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Jacob Hinga"/>
     <s v="Yes"/>
@@ -6785,7 +6862,7 @@
   </r>
   <r>
     <d v="2016-03-25T01:55:51"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Palm Desert"/>
     <x v="0"/>
     <x v="3"/>
@@ -6793,7 +6870,7 @@
     <s v="Double full kyro or cork snapu"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Tribox Tricking"/>
     <s v="Yes"/>
@@ -6803,7 +6880,7 @@
   </r>
   <r>
     <d v="2016-03-25T02:04:27"/>
-    <s v="Azerbaijan"/>
+    <x v="19"/>
     <s v="Arlington"/>
     <x v="1"/>
     <x v="0"/>
@@ -6811,7 +6888,7 @@
     <s v="Double leg"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6821,7 +6898,7 @@
   </r>
   <r>
     <d v="2016-03-25T02:14:50"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Palm Desert"/>
     <x v="0"/>
     <x v="1"/>
@@ -6829,7 +6906,7 @@
     <s v="double cork"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6839,7 +6916,7 @@
   </r>
   <r>
     <d v="2016-03-25T02:36:02"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Sydney"/>
     <x v="0"/>
     <x v="0"/>
@@ -6847,7 +6924,7 @@
     <s v="Snapuswipe"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -6857,7 +6934,7 @@
   </r>
   <r>
     <d v="2016-03-25T03:10:43"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Chicago, IL"/>
     <x v="0"/>
     <x v="4"/>
@@ -6865,7 +6942,7 @@
     <s v="B-twist"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Sigmund Ku"/>
     <s v="No"/>
@@ -6875,7 +6952,7 @@
   </r>
   <r>
     <d v="2016-03-25T03:44:19"/>
-    <s v="Austria"/>
+    <x v="20"/>
     <s v="Graz"/>
     <x v="0"/>
     <x v="1"/>
@@ -6883,7 +6960,7 @@
     <s v="Cheat 700"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Jann Doll"/>
     <s v="Yes"/>
@@ -6893,7 +6970,7 @@
   </r>
   <r>
     <d v="2016-03-25T03:50:49"/>
-    <s v="Lithuania"/>
+    <x v="7"/>
     <s v="Utena"/>
     <x v="0"/>
     <x v="1"/>
@@ -6901,7 +6978,7 @@
     <s v="Flash full"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="Super Marty"/>
     <s v="No"/>
@@ -6911,7 +6988,7 @@
   </r>
   <r>
     <d v="2016-03-25T03:54:34"/>
-    <s v="New Zealand"/>
+    <x v="21"/>
     <s v="Gisborne "/>
     <x v="0"/>
     <x v="4"/>
@@ -6919,7 +6996,7 @@
     <s v="Reversao Raiz"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <m/>
     <s v="Yes"/>
@@ -6929,7 +7006,7 @@
   </r>
   <r>
     <d v="2016-03-25T03:56:54"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Jose"/>
     <x v="0"/>
     <x v="0"/>
@@ -6937,7 +7014,7 @@
     <s v="Jackknife"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="ThunderTijo"/>
     <s v="Yes"/>
@@ -6947,7 +7024,7 @@
   </r>
   <r>
     <d v="2016-03-25T03:59:57"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Tucson"/>
     <x v="0"/>
     <x v="0"/>
@@ -6955,7 +7032,7 @@
     <s v="Double leg twist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -6965,7 +7042,7 @@
   </r>
   <r>
     <d v="2016-03-25T04:30:19"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Santa Rosa"/>
     <x v="0"/>
     <x v="4"/>
@@ -6973,7 +7050,7 @@
     <s v="raiz"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCFe0-HJDGdlqRPQb8hbe3QQ"/>
     <s v="Yes"/>
@@ -6983,7 +7060,7 @@
   </r>
   <r>
     <d v="2016-03-25T04:46:07"/>
-    <s v="Mauritius"/>
+    <x v="22"/>
     <s v="Rose HIll"/>
     <x v="0"/>
     <x v="4"/>
@@ -6991,7 +7068,7 @@
     <n v="540"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7001,7 +7078,7 @@
   </r>
   <r>
     <d v="2016-03-25T04:46:13"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="London"/>
     <x v="0"/>
     <x v="1"/>
@@ -7009,7 +7086,7 @@
     <s v="Scoot full"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7019,7 +7096,7 @@
   </r>
   <r>
     <d v="2016-03-25T04:47:54"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Mentor "/>
     <x v="0"/>
     <x v="3"/>
@@ -7027,7 +7104,7 @@
     <s v="Double Cork "/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Sgtforce10"/>
     <s v="Yes"/>
@@ -7037,7 +7114,7 @@
   </r>
   <r>
     <d v="2016-03-25T04:52:38"/>
-    <s v="Czech Republic"/>
+    <x v="6"/>
     <s v="Odry "/>
     <x v="0"/>
     <x v="1"/>
@@ -7045,7 +7122,7 @@
     <s v="CORK "/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <m/>
     <s v="Yes"/>
@@ -7055,7 +7132,7 @@
   </r>
   <r>
     <d v="2016-03-25T04:58:21"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Sydney"/>
     <x v="0"/>
     <x v="1"/>
@@ -7063,7 +7140,7 @@
     <s v="Cork Variations"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7073,7 +7150,7 @@
   </r>
   <r>
     <d v="2016-03-25T05:04:37"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Göttingen"/>
     <x v="0"/>
     <x v="1"/>
@@ -7081,7 +7158,7 @@
     <s v="Gainerswitch"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCbKSKcFDgPJIu2D4iYM1mvA"/>
     <s v="No"/>
@@ -7091,7 +7168,7 @@
   </r>
   <r>
     <d v="2016-03-25T05:09:14"/>
-    <s v="Netherlands"/>
+    <x v="9"/>
     <s v="Boxtel"/>
     <x v="0"/>
     <x v="4"/>
@@ -7099,7 +7176,7 @@
     <s v="gainer switches"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/watch?v=Sz-Ux-xnZ-c"/>
     <s v="Yes"/>
@@ -7109,7 +7186,7 @@
   </r>
   <r>
     <d v="2016-03-25T05:27:05"/>
-    <s v="Czech Republic"/>
+    <x v="6"/>
     <s v="Zlín"/>
     <x v="0"/>
     <x v="4"/>
@@ -7117,7 +7194,7 @@
     <s v="Cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7127,7 +7204,7 @@
   </r>
   <r>
     <d v="2016-03-25T05:33:53"/>
-    <s v="France"/>
+    <x v="24"/>
     <s v="Paris"/>
     <x v="0"/>
     <x v="0"/>
@@ -7135,7 +7212,7 @@
     <s v="Illusion Twist"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7145,7 +7222,7 @@
   </r>
   <r>
     <d v="2016-03-25T05:34:55"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Edinburgh"/>
     <x v="0"/>
     <x v="4"/>
@@ -7153,7 +7230,7 @@
     <s v="Aerial"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7163,7 +7240,7 @@
   </r>
   <r>
     <d v="2016-03-25T05:37:36"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Berlin"/>
     <x v="0"/>
     <x v="4"/>
@@ -7171,7 +7248,7 @@
     <s v="Cheat kicks"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="curently i am injured but usually 6-8 "/>
+    <x v="10"/>
     <s v="Yes"/>
     <s v="Matias marquez blanc"/>
     <s v="Yes"/>
@@ -7181,7 +7258,7 @@
   </r>
   <r>
     <d v="2016-03-25T05:50:17"/>
-    <s v="India"/>
+    <x v="25"/>
     <s v="New Delhi"/>
     <x v="0"/>
     <x v="4"/>
@@ -7189,7 +7266,7 @@
     <s v="anything that goes into hook to Gainer ex. Swipeknife/Jackknife to gainer :3 "/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/nidhigts"/>
     <s v="Yes"/>
@@ -7199,7 +7276,7 @@
   </r>
   <r>
     <d v="2016-03-25T05:50:45"/>
-    <s v="France"/>
+    <x v="24"/>
     <s v="Paris"/>
     <x v="0"/>
     <x v="2"/>
@@ -7207,7 +7284,7 @@
     <s v="Snapu"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Marco Lindley"/>
     <s v="Yes"/>
@@ -7217,7 +7294,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:01:19"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Palm Springs"/>
     <x v="0"/>
     <x v="1"/>
@@ -7225,7 +7302,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <m/>
     <s v="Yes"/>
@@ -7235,7 +7312,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:03:30"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Deggendorf"/>
     <x v="0"/>
     <x v="1"/>
@@ -7243,7 +7320,7 @@
     <s v="cheat 900 "/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7253,7 +7330,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:09:18"/>
-    <s v="Sweden"/>
+    <x v="10"/>
     <s v="Umeå"/>
     <x v="0"/>
     <x v="4"/>
@@ -7261,7 +7338,7 @@
     <s v="Raiz"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCmcYINvtTZKoe0ge0KSH4DA"/>
     <s v="Yes"/>
@@ -7271,7 +7348,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:31:15"/>
-    <s v="Czech Republic"/>
+    <x v="6"/>
     <s v="Beroun"/>
     <x v="0"/>
     <x v="0"/>
@@ -7279,7 +7356,7 @@
     <s v="Butterfly Twist"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="CedrikŠvásta"/>
     <s v="Yes"/>
@@ -7289,7 +7366,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:33:19"/>
-    <s v="Sweden"/>
+    <x v="10"/>
     <s v="Stockholm"/>
     <x v="0"/>
     <x v="1"/>
@@ -7297,7 +7374,7 @@
     <s v="cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <m/>
     <s v="No"/>
@@ -7307,7 +7384,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:34:52"/>
-    <s v="Finland"/>
+    <x v="26"/>
     <s v="Tampere"/>
     <x v="0"/>
     <x v="4"/>
@@ -7315,7 +7392,7 @@
     <s v="Raiz"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="youtube.com/heikkijay"/>
     <s v="Yes"/>
@@ -7325,7 +7402,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:44:40"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Chicago"/>
     <x v="0"/>
     <x v="4"/>
@@ -7333,7 +7410,7 @@
     <s v="Butterfly Twist Round"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7343,7 +7420,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:46:09"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Cologne"/>
     <x v="0"/>
     <x v="4"/>
@@ -7351,7 +7428,7 @@
     <s v="Gainer Switch"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCzxQ6AxH1LQHa3YmjkXKzMQ"/>
     <s v="Yes"/>
@@ -7361,7 +7438,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:47:14"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Karlsruhe"/>
     <x v="0"/>
     <x v="1"/>
@@ -7369,7 +7446,7 @@
     <s v="Wrapfull"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="None, I'm injured atm"/>
+    <x v="11"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCkzoVUUAxoDu23SayKjRfKw"/>
     <s v="No"/>
@@ -7379,7 +7456,7 @@
   </r>
   <r>
     <d v="2016-03-25T06:58:02"/>
-    <s v="Greece"/>
+    <x v="27"/>
     <s v="Heraklion"/>
     <x v="0"/>
     <x v="4"/>
@@ -7387,7 +7464,7 @@
     <s v="At the moment, Cheat 720, but it's always changing."/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="owlswisdom"/>
     <s v="Yes"/>
@@ -7397,7 +7474,7 @@
   </r>
   <r>
     <d v="2016-03-25T07:19:12"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Karlsruhe"/>
     <x v="1"/>
     <x v="1"/>
@@ -7405,7 +7482,7 @@
     <s v="Butterflytwist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7415,7 +7492,7 @@
   </r>
   <r>
     <d v="2016-03-25T07:28:34"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Philadelphia"/>
     <x v="0"/>
     <x v="0"/>
@@ -7423,7 +7500,7 @@
     <n v="540"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="YouTube.com/ishpayne"/>
     <s v="Yes"/>
@@ -7433,7 +7510,7 @@
   </r>
   <r>
     <d v="2016-03-25T07:39:33"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Melbourne "/>
     <x v="0"/>
     <x v="0"/>
@@ -7441,7 +7518,7 @@
     <s v="Any sort of kick"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7451,7 +7528,7 @@
   </r>
   <r>
     <d v="2016-03-25T08:12:41"/>
-    <s v="Netherlands"/>
+    <x v="9"/>
     <s v="Delft"/>
     <x v="0"/>
     <x v="4"/>
@@ -7459,7 +7536,7 @@
     <s v="Gainer"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Patrick Nijman"/>
     <s v="Yes"/>
@@ -7469,7 +7546,7 @@
   </r>
   <r>
     <d v="2016-03-25T08:13:36"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Oslo"/>
     <x v="0"/>
     <x v="4"/>
@@ -7477,7 +7554,7 @@
     <s v="Fulltwist"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7487,7 +7564,7 @@
   </r>
   <r>
     <d v="2016-03-25T08:31:08"/>
-    <s v="Switzerland"/>
+    <x v="29"/>
     <s v="Bern"/>
     <x v="0"/>
     <x v="1"/>
@@ -7495,7 +7572,7 @@
     <s v="Boxcutter"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7505,7 +7582,7 @@
   </r>
   <r>
     <d v="2016-03-25T08:51:30"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Nuremberg"/>
     <x v="0"/>
     <x v="4"/>
@@ -7513,7 +7590,7 @@
     <s v="Aerial"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7523,7 +7600,7 @@
   </r>
   <r>
     <d v="2016-03-25T08:53:59"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Darmstadt"/>
     <x v="0"/>
     <x v="4"/>
@@ -7531,7 +7608,7 @@
     <s v="Aerial"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7541,7 +7618,7 @@
   </r>
   <r>
     <d v="2016-03-25T09:15:04"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="saarbrücken"/>
     <x v="0"/>
     <x v="3"/>
@@ -7549,7 +7626,7 @@
     <s v="cart dub"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/MOzYourEvilTwin"/>
     <s v="No"/>
@@ -7559,7 +7636,7 @@
   </r>
   <r>
     <d v="2016-03-25T10:22:12"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="dinslaken "/>
     <x v="0"/>
     <x v="1"/>
@@ -7567,7 +7644,7 @@
     <s v="snapu"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7577,7 +7654,7 @@
   </r>
   <r>
     <d v="2016-03-25T10:47:33"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Council Bluffs"/>
     <x v="0"/>
     <x v="4"/>
@@ -7585,7 +7662,7 @@
     <s v="scoot full"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7595,7 +7672,7 @@
   </r>
   <r>
     <d v="2016-03-25T11:30:33"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Palm desert"/>
     <x v="0"/>
     <x v="1"/>
@@ -7603,7 +7680,7 @@
     <s v="Raiz"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7613,7 +7690,7 @@
   </r>
   <r>
     <d v="2016-03-25T11:31:49"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Montreal"/>
     <x v="0"/>
     <x v="0"/>
@@ -7621,7 +7698,7 @@
     <s v="Webster"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <s v="Justin Phetramphanh"/>
     <s v="Yes"/>
@@ -7631,7 +7708,7 @@
   </r>
   <r>
     <d v="2016-03-25T13:12:29"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="COCONUT CREEK, fl"/>
     <x v="0"/>
     <x v="0"/>
@@ -7639,7 +7716,7 @@
     <n v="540"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="540round"/>
     <s v="No"/>
@@ -7649,7 +7726,7 @@
   </r>
   <r>
     <d v="2016-03-25T14:03:32"/>
-    <s v="Italy"/>
+    <x v="30"/>
     <s v="Modena"/>
     <x v="0"/>
     <x v="1"/>
@@ -7657,7 +7734,7 @@
     <s v="Cheat Gainer"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/simoferra1996"/>
     <s v="Yes"/>
@@ -7667,7 +7744,7 @@
   </r>
   <r>
     <d v="2016-03-25T14:03:50"/>
-    <s v="Israel"/>
+    <x v="31"/>
     <s v="afula"/>
     <x v="0"/>
     <x v="3"/>
@@ -7675,7 +7752,7 @@
     <s v="corkscrew"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7685,7 +7762,7 @@
   </r>
   <r>
     <d v="2016-03-25T14:05:38"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Ladysmith"/>
     <x v="0"/>
     <x v="1"/>
@@ -7693,7 +7770,7 @@
     <s v="Aerial front swing raiz"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Laz Turrell-poole"/>
     <s v="Yes"/>
@@ -7703,7 +7780,7 @@
   </r>
   <r>
     <d v="2016-03-25T14:06:18"/>
-    <s v="Tunisia"/>
+    <x v="32"/>
     <s v="tunise bardo"/>
     <x v="0"/>
     <x v="4"/>
@@ -7711,7 +7788,7 @@
     <s v="cartfull"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCPrrNJCAnvZPx5j_juTbKQw"/>
     <s v="No"/>
@@ -7721,7 +7798,7 @@
   </r>
   <r>
     <d v="2016-03-25T14:09:02"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Coral spring, FL"/>
     <x v="0"/>
     <x v="1"/>
@@ -7729,7 +7806,7 @@
     <s v="Double full"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7739,7 +7816,7 @@
   </r>
   <r>
     <d v="2016-03-25T14:35:58"/>
-    <s v="Switzerland"/>
+    <x v="29"/>
     <s v="Bern"/>
     <x v="0"/>
     <x v="4"/>
@@ -7747,7 +7824,7 @@
     <s v="Cork (swingthroughs)"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7757,7 +7834,7 @@
   </r>
   <r>
     <d v="2016-03-25T14:45:17"/>
-    <s v="Morocco"/>
+    <x v="1"/>
     <s v="Casablanca"/>
     <x v="0"/>
     <x v="1"/>
@@ -7765,7 +7842,7 @@
     <s v="Snapu"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Khadri Mohamed (https://www.youtube.com/channel/UCcNy97u0k-XwGeNDpgZXLjQ)"/>
     <s v="No"/>
@@ -7775,7 +7852,7 @@
   </r>
   <r>
     <d v="2016-03-25T14:51:01"/>
-    <s v="Sweden"/>
+    <x v="10"/>
     <s v="Stockholm"/>
     <x v="0"/>
     <x v="4"/>
@@ -7783,7 +7860,7 @@
     <s v="Cheat 720"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Simon Boström (probably, can't remember)"/>
     <s v="No"/>
@@ -7793,7 +7870,7 @@
   </r>
   <r>
     <d v="2016-03-25T15:42:05"/>
-    <s v="Tunisia"/>
+    <x v="32"/>
     <s v="ariena"/>
     <x v="0"/>
     <x v="1"/>
@@ -7801,7 +7878,7 @@
     <s v="cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="wajdi baya"/>
     <s v="Yes"/>
@@ -7811,7 +7888,7 @@
   </r>
   <r>
     <d v="2016-03-25T16:07:19"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Jose"/>
     <x v="0"/>
     <x v="0"/>
@@ -7819,7 +7896,7 @@
     <s v="Shuriken hyperhook"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Fatesfayt"/>
     <s v="Yes"/>
@@ -7829,7 +7906,7 @@
   </r>
   <r>
     <d v="2016-03-25T16:14:28"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Diego "/>
     <x v="0"/>
     <x v="0"/>
@@ -7837,7 +7914,7 @@
     <s v="Illusion twist"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7847,7 +7924,7 @@
   </r>
   <r>
     <d v="2016-03-25T16:59:29"/>
-    <s v="Lithuania"/>
+    <x v="7"/>
     <s v="Vilnius"/>
     <x v="0"/>
     <x v="1"/>
@@ -7855,7 +7932,7 @@
     <s v="Cart Arabian"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7865,7 +7942,7 @@
   </r>
   <r>
     <d v="2016-03-25T18:35:54"/>
-    <s v="Morocco"/>
+    <x v="1"/>
     <s v="Nador"/>
     <x v="0"/>
     <x v="4"/>
@@ -7873,7 +7950,7 @@
     <s v="Can't go wrong with a cheat 900"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7883,7 +7960,7 @@
   </r>
   <r>
     <d v="2016-03-25T18:50:52"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Charlotte"/>
     <x v="0"/>
     <x v="0"/>
@@ -7891,7 +7968,7 @@
     <s v="Boxcutter"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7901,7 +7978,7 @@
   </r>
   <r>
     <d v="2016-03-25T18:57:48"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="District Height "/>
     <x v="0"/>
     <x v="3"/>
@@ -7909,7 +7986,7 @@
     <s v="Cork doubleleg"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Eric McRae"/>
     <s v="Yes"/>
@@ -7919,7 +7996,7 @@
   </r>
   <r>
     <d v="2016-03-25T19:07:43"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Charlotte"/>
     <x v="0"/>
     <x v="0"/>
@@ -7927,7 +8004,7 @@
     <s v="Boxcutter"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7937,7 +8014,7 @@
   </r>
   <r>
     <d v="2016-03-25T19:08:04"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San dimas"/>
     <x v="0"/>
     <x v="3"/>
@@ -7945,7 +8022,7 @@
     <s v="Gainer Switch"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -7955,7 +8032,7 @@
   </r>
   <r>
     <d v="2016-03-25T19:24:26"/>
-    <s v="Austria"/>
+    <x v="20"/>
     <s v="Graz"/>
     <x v="0"/>
     <x v="0"/>
@@ -7963,7 +8040,7 @@
     <s v="PopSwipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7973,7 +8050,7 @@
   </r>
   <r>
     <d v="2016-03-25T19:24:43"/>
-    <s v="Austria"/>
+    <x v="20"/>
     <s v="Graz"/>
     <x v="0"/>
     <x v="0"/>
@@ -7981,7 +8058,7 @@
     <s v="PopSwipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -7991,7 +8068,7 @@
   </r>
   <r>
     <d v="2016-03-25T23:30:15"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="London"/>
     <x v="0"/>
     <x v="4"/>
@@ -7999,7 +8076,7 @@
     <s v="Cheat gainer"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8009,7 +8086,7 @@
   </r>
   <r>
     <d v="2016-03-26T12:23:05"/>
-    <s v="Italy"/>
+    <x v="30"/>
     <s v="Rome"/>
     <x v="0"/>
     <x v="4"/>
@@ -8017,7 +8094,7 @@
     <s v="Flashkick"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Metaldade"/>
     <s v="No"/>
@@ -8027,7 +8104,7 @@
   </r>
   <r>
     <d v="2016-03-26T22:04:44"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="New Brunswick"/>
     <x v="0"/>
     <x v="8"/>
@@ -8035,7 +8112,7 @@
     <s v="Cork dleg"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <m/>
     <s v="Yes"/>
@@ -8045,7 +8122,7 @@
   </r>
   <r>
     <d v="2016-03-30T05:47:31"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Hamburg"/>
     <x v="0"/>
     <x v="0"/>
@@ -8053,7 +8130,7 @@
     <s v="Backside 1080"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Icybrace"/>
     <s v="No"/>
@@ -8063,7 +8140,7 @@
   </r>
   <r>
     <d v="2016-04-02T15:32:05"/>
-    <s v="Israel"/>
+    <x v="31"/>
     <s v="Matityahu"/>
     <x v="0"/>
     <x v="4"/>
@@ -8071,7 +8148,7 @@
     <s v="Au Helicoptero"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="KRCapoeira"/>
     <s v="Yes"/>
@@ -8081,7 +8158,7 @@
   </r>
   <r>
     <d v="2016-04-02T20:22:56"/>
-    <s v="Korea, South"/>
+    <x v="33"/>
     <s v="Seoul"/>
     <x v="0"/>
     <x v="0"/>
@@ -8089,7 +8166,7 @@
     <s v="Double Btwsit"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="trickorea or seokbae seo"/>
     <s v="Yes"/>
@@ -8099,7 +8176,7 @@
   </r>
   <r>
     <d v="2016-04-02T20:57:23"/>
-    <s v="Singapore"/>
+    <x v="18"/>
     <s v="Singapore"/>
     <x v="0"/>
     <x v="0"/>
@@ -8107,7 +8184,7 @@
     <s v="Raiz"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8117,7 +8194,7 @@
   </r>
   <r>
     <d v="2016-04-03T11:12:49"/>
-    <s v="Austria"/>
+    <x v="20"/>
     <s v="Salzburg"/>
     <x v="0"/>
     <x v="1"/>
@@ -8125,7 +8202,7 @@
     <s v="Sideswipe"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8135,7 +8212,7 @@
   </r>
   <r>
     <d v="2016-04-04T00:25:25"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Centreville"/>
     <x v="0"/>
     <x v="0"/>
@@ -8143,7 +8220,7 @@
     <s v="Sideswipe"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8153,7 +8230,7 @@
   </r>
   <r>
     <d v="2016-04-07T09:05:26"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Gold Coast"/>
     <x v="0"/>
     <x v="3"/>
@@ -8161,7 +8238,7 @@
     <s v="Swipeknife"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8171,7 +8248,7 @@
   </r>
   <r>
     <d v="2016-04-07T09:25:40"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="gold coast"/>
     <x v="0"/>
     <x v="3"/>
@@ -8179,7 +8256,7 @@
     <s v="cork "/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8189,7 +8266,7 @@
   </r>
   <r>
     <d v="2016-04-07T11:56:18"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Mentor "/>
     <x v="0"/>
     <x v="0"/>
@@ -8197,7 +8274,7 @@
     <s v="Webster and cork double leg "/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="SGTFORCE10"/>
     <s v="Yes"/>
@@ -8207,7 +8284,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:35:18"/>
-    <s v="Spain"/>
+    <x v="4"/>
     <s v="Valencia"/>
     <x v="0"/>
     <x v="1"/>
@@ -8215,7 +8292,7 @@
     <s v="Btwist Shuriken"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="drakeborja"/>
     <s v="Yes"/>
@@ -8225,7 +8302,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:36:53"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Akron"/>
     <x v="0"/>
     <x v="1"/>
@@ -8233,7 +8310,7 @@
     <s v="Double Btwist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="youtube.com/user/amiliflippz "/>
     <s v="Yes"/>
@@ -8243,7 +8320,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:38:20"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Willoughby"/>
     <x v="0"/>
     <x v="4"/>
@@ -8251,7 +8328,7 @@
     <s v="Cheat 720"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8261,7 +8338,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:38:57"/>
-    <s v="Switzerland"/>
+    <x v="29"/>
     <s v="Yverdon"/>
     <x v="0"/>
     <x v="4"/>
@@ -8269,7 +8346,7 @@
     <s v="sideswipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCf4X3XghbgZxq6yLNfzOWfg?nohtml5=False"/>
     <s v="No"/>
@@ -8279,7 +8356,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:39:06"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Las vegas"/>
     <x v="0"/>
     <x v="1"/>
@@ -8287,7 +8364,7 @@
     <s v="Hyper hook"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Juanazulyeah04"/>
     <s v="Yes"/>
@@ -8297,7 +8374,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:42:26"/>
-    <s v="Sweden"/>
+    <x v="10"/>
     <s v="Malmö"/>
     <x v="0"/>
     <x v="4"/>
@@ -8305,7 +8382,7 @@
     <s v="Carry Through Raiz"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <n v="0"/>
+    <x v="6"/>
     <s v="Yes"/>
     <s v="agnvik26"/>
     <s v="No"/>
@@ -8315,7 +8392,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:45:23"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Chicago "/>
     <x v="0"/>
     <x v="0"/>
@@ -8323,7 +8400,7 @@
     <s v="Cheat gainer"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8333,7 +8410,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:46:11"/>
-    <s v="Morocco"/>
+    <x v="1"/>
     <s v="Marrakech"/>
     <x v="0"/>
     <x v="4"/>
@@ -8341,7 +8418,7 @@
     <s v="Fulls"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Othman laa"/>
     <s v="No"/>
@@ -8351,7 +8428,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:46:29"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Sydney"/>
     <x v="0"/>
     <x v="1"/>
@@ -8359,7 +8436,7 @@
     <s v="Double btwist"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="Tim Farley"/>
     <s v="Yes"/>
@@ -8369,7 +8446,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:46:30"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Herten"/>
     <x v="0"/>
     <x v="0"/>
@@ -8377,7 +8454,7 @@
     <s v="Double Btwist"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Chrisstkd"/>
     <s v="Yes"/>
@@ -8387,7 +8464,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:51:42"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Lenexa, KS"/>
     <x v="0"/>
     <x v="4"/>
@@ -8395,7 +8472,7 @@
     <s v="Double full"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Aiken54@gmail.com"/>
     <s v="Yes"/>
@@ -8405,7 +8482,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:54:30"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Columbia, SC"/>
     <x v="0"/>
     <x v="1"/>
@@ -8413,7 +8490,7 @@
     <s v="Switch"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="None anymore :("/>
+    <x v="12"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8423,7 +8500,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:54:59"/>
-    <s v="Sweden"/>
+    <x v="10"/>
     <s v="Boden"/>
     <x v="0"/>
     <x v="3"/>
@@ -8431,7 +8508,7 @@
     <s v="Boxcutter"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8441,7 +8518,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:56:21"/>
-    <s v="Tunisia"/>
+    <x v="32"/>
     <s v="ariena"/>
     <x v="0"/>
     <x v="4"/>
@@ -8449,7 +8526,7 @@
     <s v="corks"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="wajdi baya"/>
     <s v="Yes"/>
@@ -8459,7 +8536,7 @@
   </r>
   <r>
     <d v="2016-04-07T12:56:59"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Springfield"/>
     <x v="0"/>
     <x v="1"/>
@@ -8467,7 +8544,7 @@
     <s v="Cart dub"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8477,7 +8554,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:01:26"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Seattle, Washington"/>
     <x v="0"/>
     <x v="0"/>
@@ -8485,7 +8562,7 @@
     <s v="Btwist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Banshee098 and TrickLab"/>
     <s v="Yes"/>
@@ -8495,7 +8572,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:14:55"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Brunswick"/>
     <x v="0"/>
     <x v="4"/>
@@ -8503,7 +8580,7 @@
     <s v="TD Raiz"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="nonfines"/>
     <s v="Yes"/>
@@ -8513,7 +8590,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:16:41"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Reno"/>
     <x v="0"/>
     <x v="0"/>
@@ -8521,7 +8598,7 @@
     <s v="Triple full"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="None due to injury."/>
+    <x v="13"/>
     <s v="Yes"/>
     <s v="Teamtrickgasm"/>
     <s v="Yes"/>
@@ -8531,7 +8608,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:19:12"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Naples, FL"/>
     <x v="0"/>
     <x v="0"/>
@@ -8539,7 +8616,7 @@
     <s v="Snapuswipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCPM09h4abKqf16hsnjAHaLQ"/>
     <s v="Yes"/>
@@ -8549,7 +8626,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:30:33"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Palm Desert"/>
     <x v="0"/>
     <x v="3"/>
@@ -8557,7 +8634,7 @@
     <s v="Double cork or full snapu"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="tribox tricking"/>
     <s v="Yes"/>
@@ -8567,7 +8644,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:37:51"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Würzburg"/>
     <x v="0"/>
     <x v="3"/>
@@ -8575,7 +8652,7 @@
     <s v="cheat 720"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCVsIZHnZvNfzrlh8GrMUGkg"/>
     <s v="Yes"/>
@@ -8585,7 +8662,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:41:25"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="El Paso, Texas "/>
     <x v="0"/>
     <x v="8"/>
@@ -8593,7 +8670,7 @@
     <s v="Valdez pop dub"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8603,7 +8680,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:41:51"/>
-    <s v="Argentina"/>
+    <x v="34"/>
     <s v="buenos aires"/>
     <x v="0"/>
     <x v="0"/>
@@ -8611,7 +8688,7 @@
     <s v="cart-full"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8621,7 +8698,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:58:16"/>
-    <s v="Serbia"/>
+    <x v="35"/>
     <s v="Belgrade"/>
     <x v="0"/>
     <x v="1"/>
@@ -8629,7 +8706,7 @@
     <s v="Boxcutter"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="http://youtu.be/nNRiTaGnkP0"/>
     <s v="No"/>
@@ -8639,7 +8716,7 @@
   </r>
   <r>
     <d v="2016-04-07T13:58:53"/>
-    <s v="Ireland"/>
+    <x v="36"/>
     <s v="Belfast"/>
     <x v="2"/>
     <x v="1"/>
@@ -8647,7 +8724,7 @@
     <s v="corkscrew"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8657,7 +8734,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:02:01"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Tacoma, WA. Living in LA"/>
     <x v="0"/>
     <x v="4"/>
@@ -8665,7 +8742,7 @@
     <s v="Moonkick"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8675,7 +8752,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:04:57"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Münster"/>
     <x v="0"/>
     <x v="5"/>
@@ -8683,7 +8760,7 @@
     <s v="step-over hook"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="jump0x"/>
     <s v="No"/>
@@ -8693,7 +8770,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:10:48"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Moncton"/>
     <x v="0"/>
     <x v="1"/>
@@ -8701,7 +8778,7 @@
     <s v="aerial, 540 kick"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="not anymore"/>
+    <x v="14"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8711,7 +8788,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:13:48"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Boston"/>
     <x v="0"/>
     <x v="4"/>
@@ -8719,7 +8796,7 @@
     <s v="wrap full"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCFaYR_lfnmD7GEvN2HCdELw"/>
     <s v="Yes"/>
@@ -8729,7 +8806,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:15:36"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Jose"/>
     <x v="0"/>
     <x v="0"/>
@@ -8737,7 +8814,7 @@
     <s v="Jacknife"/>
     <s v="Yes"/>
     <s v="Damn... Good question"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Loopkicks"/>
     <s v="Yes"/>
@@ -8747,7 +8824,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:17:12"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Brunswick ohio"/>
     <x v="0"/>
     <x v="2"/>
@@ -8755,7 +8832,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8765,7 +8842,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:18:08"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Philadelphia"/>
     <x v="0"/>
     <x v="1"/>
@@ -8773,7 +8850,7 @@
     <s v="Gainer switch"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="antimuggle"/>
     <s v="Yes"/>
@@ -8783,7 +8860,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:26:50"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Münster"/>
     <x v="0"/>
     <x v="4"/>
@@ -8791,7 +8868,7 @@
     <s v="Takfullswipe"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Ole Oelerich "/>
     <s v="Yes"/>
@@ -8801,7 +8878,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:30:23"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Joliet"/>
     <x v="0"/>
     <x v="0"/>
@@ -8809,7 +8886,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8819,7 +8896,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:31:06"/>
-    <s v="Lithuania"/>
+    <x v="7"/>
     <s v="Kaunas"/>
     <x v="0"/>
     <x v="3"/>
@@ -8827,7 +8904,7 @@
     <s v="Hard question. Cheat 720"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="Ponas Andrius"/>
     <s v="No"/>
@@ -8837,7 +8914,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:37:33"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Centennial, CO"/>
     <x v="0"/>
     <x v="1"/>
@@ -8845,7 +8922,7 @@
     <s v="Double Btwist"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Cgrenhart@gmail.com"/>
     <s v="Yes"/>
@@ -8855,7 +8932,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:40:19"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Denver"/>
     <x v="0"/>
     <x v="8"/>
@@ -8863,7 +8940,7 @@
     <s v="Wrap full snapu and full double legs"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8873,7 +8950,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:41:58"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Munich"/>
     <x v="0"/>
     <x v="4"/>
@@ -8881,7 +8958,7 @@
     <s v="Touchdown Raiz"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="UpSideDown"/>
     <s v="No"/>
@@ -8891,7 +8968,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:49:30"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Cleveland"/>
     <x v="0"/>
     <x v="4"/>
@@ -8899,7 +8976,7 @@
     <s v="Corks or cork variatons"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Alex Gili"/>
     <s v="Yes"/>
@@ -8909,7 +8986,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:54:40"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Sheffield"/>
     <x v="0"/>
     <x v="1"/>
@@ -8917,7 +8994,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -8927,7 +9004,7 @@
   </r>
   <r>
     <d v="2016-04-07T14:59:52"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Chicago"/>
     <x v="0"/>
     <x v="1"/>
@@ -8935,7 +9012,7 @@
     <s v="Gyro"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <n v="15"/>
+    <x v="15"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -8945,7 +9022,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:12:10"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Mateo"/>
     <x v="0"/>
     <x v="4"/>
@@ -8953,7 +9030,7 @@
     <s v="Butterfly Twist"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="benlim95"/>
     <s v="Yes"/>
@@ -8963,7 +9040,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:20:33"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Long Beach, CA"/>
     <x v="0"/>
     <x v="4"/>
@@ -8971,7 +9048,7 @@
     <s v="Raiz"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="Eurico Senna"/>
     <s v="Yes"/>
@@ -8981,7 +9058,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:24:04"/>
-    <s v="Netherlands"/>
+    <x v="9"/>
     <s v="Arnhem"/>
     <x v="0"/>
     <x v="4"/>
@@ -8989,7 +9066,7 @@
     <s v="a good sideswipe always feels like sex. lol."/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="DagonLemaire. will upload every week soon."/>
     <s v="Yes"/>
@@ -8999,7 +9076,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:28:51"/>
-    <s v="Antigua and Barbuda"/>
+    <x v="5"/>
     <s v="Syracuse"/>
     <x v="0"/>
     <x v="4"/>
@@ -9007,7 +9084,7 @@
     <s v="Cork dleg"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Hudsonhornet34"/>
     <s v="Yes"/>
@@ -9017,7 +9094,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:40:48"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Philadelphia"/>
     <x v="0"/>
     <x v="4"/>
@@ -9025,7 +9102,7 @@
     <s v="sideswipe"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Alexhunter"/>
     <s v="Yes"/>
@@ -9035,7 +9112,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:42:25"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Pam desert"/>
     <x v="0"/>
     <x v="1"/>
@@ -9043,7 +9120,7 @@
     <s v="Raiz"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9053,7 +9130,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:46:35"/>
-    <s v="South Africa"/>
+    <x v="37"/>
     <s v="Cape town "/>
     <x v="0"/>
     <x v="4"/>
@@ -9061,7 +9138,7 @@
     <s v="Cheat 7 hook "/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Tanweer gafoo "/>
     <s v="Yes"/>
@@ -9071,7 +9148,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:47:57"/>
-    <s v="Guatemala"/>
+    <x v="38"/>
     <s v="Guatemala"/>
     <x v="0"/>
     <x v="0"/>
@@ -9079,7 +9156,7 @@
     <s v="SIDESWIPE"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Julio Bollat"/>
     <s v="Yes"/>
@@ -9089,7 +9166,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:53:47"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Sandwich "/>
     <x v="0"/>
     <x v="3"/>
@@ -9097,7 +9174,7 @@
     <s v="scoot-fullswipe"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/watch?v=1B-VCQ3z84U"/>
     <s v="Yes"/>
@@ -9107,7 +9184,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:56:13"/>
-    <s v="Czech Republic"/>
+    <x v="6"/>
     <s v="Prague"/>
     <x v="0"/>
     <x v="1"/>
@@ -9115,7 +9192,7 @@
     <s v="Raiz"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9125,7 +9202,7 @@
   </r>
   <r>
     <d v="2016-04-07T15:59:12"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="New  Windsor"/>
     <x v="0"/>
     <x v="4"/>
@@ -9133,7 +9210,7 @@
     <s v="any triple"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="youtube.com/skillfullninja"/>
     <s v="Yes"/>
@@ -9143,7 +9220,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:00:04"/>
-    <s v="Czech Republic"/>
+    <x v="6"/>
     <s v="Kladno"/>
     <x v="0"/>
     <x v="4"/>
@@ -9151,7 +9228,7 @@
     <s v="windex swipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9161,7 +9238,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:00:30"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Sunnyvale, CA"/>
     <x v="0"/>
     <x v="0"/>
@@ -9169,7 +9246,7 @@
     <s v="Double cork"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9179,7 +9256,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:01:23"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Chicago"/>
     <x v="0"/>
     <x v="4"/>
@@ -9187,7 +9264,7 @@
     <s v="Full snapu"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <n v="18"/>
+    <x v="16"/>
     <s v="Yes"/>
     <s v="Cody Weiske"/>
     <s v="Yes"/>
@@ -9197,7 +9274,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:03:12"/>
-    <s v="Greece"/>
+    <x v="27"/>
     <s v="Athens"/>
     <x v="0"/>
     <x v="3"/>
@@ -9205,7 +9282,7 @@
     <s v="cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="John St"/>
     <s v="No"/>
@@ -9215,7 +9292,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:04:56"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Huddersfield"/>
     <x v="0"/>
     <x v="3"/>
@@ -9223,7 +9300,7 @@
     <s v="Mega aerial."/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Type 'jordan edwards tricking' ill be there "/>
     <s v="Yes"/>
@@ -9233,7 +9310,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:09:42"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="munic"/>
     <x v="0"/>
     <x v="2"/>
@@ -9241,7 +9318,7 @@
     <s v="sideswipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9251,7 +9328,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:10:33"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Flemington New Jersey "/>
     <x v="1"/>
     <x v="0"/>
@@ -9259,7 +9336,7 @@
     <s v="Arial"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="Bianca Catalano"/>
     <s v="Yes"/>
@@ -9269,7 +9346,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:17:28"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Detroit"/>
     <x v="0"/>
     <x v="0"/>
@@ -9277,7 +9354,7 @@
     <s v="Kick variations"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="It's an on and off type of situation. "/>
+    <x v="17"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9287,7 +9364,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:21:38"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Nanaimo"/>
     <x v="0"/>
     <x v="1"/>
@@ -9295,7 +9372,7 @@
     <s v="Aerial semi front swing raiz"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Laz Turrell-Poole"/>
     <s v="Yes"/>
@@ -9305,7 +9382,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:23:39"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Bedford"/>
     <x v="0"/>
     <x v="1"/>
@@ -9313,7 +9390,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="Omige"/>
     <s v="Yes"/>
@@ -9323,7 +9400,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:26:46"/>
-    <s v="Lithuania"/>
+    <x v="7"/>
     <s v="Kaunas"/>
     <x v="0"/>
     <x v="4"/>
@@ -9331,7 +9408,7 @@
     <s v="cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -9341,7 +9418,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:26:54"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Kansas City, KS"/>
     <x v="0"/>
     <x v="1"/>
@@ -9349,7 +9426,7 @@
     <s v="Webster"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCva4Gsrx5a9BKARIgG_ZOkA"/>
     <s v="Yes"/>
@@ -9359,7 +9436,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:27:31"/>
-    <s v="Netherlands"/>
+    <x v="9"/>
     <s v="groningen"/>
     <x v="0"/>
     <x v="1"/>
@@ -9367,7 +9444,7 @@
     <s v="Aerial"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9377,7 +9454,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:32:07"/>
-    <s v="Lithuania"/>
+    <x v="7"/>
     <s v="Vilnius"/>
     <x v="0"/>
     <x v="1"/>
@@ -9385,7 +9462,7 @@
     <n v="540"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -9395,7 +9472,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:32:36"/>
-    <s v="Finland"/>
+    <x v="26"/>
     <s v="Tampere "/>
     <x v="0"/>
     <x v="4"/>
@@ -9403,7 +9480,7 @@
     <s v="Gswitch "/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Aleksi Ranta "/>
     <s v="Yes"/>
@@ -9413,7 +9490,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:33:30"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Austin"/>
     <x v="0"/>
     <x v="0"/>
@@ -9421,7 +9498,7 @@
     <s v="Butterfly Twist"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="JustinToTrix"/>
     <s v="Yes"/>
@@ -9431,7 +9508,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:35:31"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Minneapolis"/>
     <x v="0"/>
     <x v="4"/>
@@ -9439,7 +9516,7 @@
     <s v="cart full"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="jakeandbaketricking"/>
     <s v="Yes"/>
@@ -9449,7 +9526,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:40:36"/>
-    <s v="Uruguay"/>
+    <x v="39"/>
     <s v="Montevideo"/>
     <x v="0"/>
     <x v="1"/>
@@ -9457,7 +9534,7 @@
     <s v="Cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -9467,7 +9544,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:41:10"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Münster"/>
     <x v="0"/>
     <x v="4"/>
@@ -9475,7 +9552,7 @@
     <s v="Full Dleg Twist"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Tim Hunkemöller "/>
     <s v="Yes"/>
@@ -9485,7 +9562,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:43:58"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Angels Camp, California"/>
     <x v="0"/>
     <x v="1"/>
@@ -9493,7 +9570,7 @@
     <s v="Cork dleg"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Parkourred3"/>
     <s v="Yes"/>
@@ -9503,7 +9580,7 @@
   </r>
   <r>
     <d v="2016-04-07T16:49:34"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Leicester"/>
     <x v="0"/>
     <x v="0"/>
@@ -9511,7 +9588,7 @@
     <s v="gswitch"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9521,7 +9598,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:02:18"/>
-    <s v="Ireland"/>
+    <x v="36"/>
     <s v="Wicklow/Seoul, South Korea"/>
     <x v="0"/>
     <x v="4"/>
@@ -9529,7 +9606,7 @@
     <s v="Flashkicks and fulls"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="youtube.com/dubhy92 or search Dubhan tricking"/>
     <s v="Yes"/>
@@ -9539,7 +9616,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:07:59"/>
-    <s v="Brazil"/>
+    <x v="17"/>
     <s v="Salto/São Paulo"/>
     <x v="0"/>
     <x v="4"/>
@@ -9547,7 +9624,7 @@
     <s v="flashkick"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCWB1Z_br1dwMYsJkn3w3SiQ"/>
     <s v="No"/>
@@ -9557,7 +9634,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:09:49"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Lynchburg "/>
     <x v="0"/>
     <x v="0"/>
@@ -9565,7 +9642,7 @@
     <s v="Donut boy "/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="William Wegert "/>
     <s v="Yes"/>
@@ -9575,7 +9652,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:10:22"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Elverum"/>
     <x v="0"/>
     <x v="4"/>
@@ -9583,7 +9660,7 @@
     <s v="Moonkick"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9593,7 +9670,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:19:27"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Gold coast"/>
     <x v="0"/>
     <x v="3"/>
@@ -9601,7 +9678,7 @@
     <s v="Btwist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Lachlan lincoln"/>
     <s v="Yes"/>
@@ -9611,7 +9688,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:25:49"/>
-    <s v="Thailand"/>
+    <x v="40"/>
     <s v="Bangkok"/>
     <x v="0"/>
     <x v="0"/>
@@ -9619,7 +9696,7 @@
     <n v="720"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Kulakickz"/>
     <s v="Yes"/>
@@ -9629,7 +9706,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:29:33"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="gold coast"/>
     <x v="0"/>
     <x v="3"/>
@@ -9637,7 +9714,7 @@
     <s v="Gainer"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9647,7 +9724,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:29:35"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="gold coast"/>
     <x v="0"/>
     <x v="3"/>
@@ -9655,7 +9732,7 @@
     <s v="Gainer"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9665,7 +9742,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:50:49"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Melbourne"/>
     <x v="0"/>
     <x v="4"/>
@@ -9673,7 +9750,7 @@
     <s v="cork snapu"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -9683,7 +9760,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:52:28"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Takoma Park, MD"/>
     <x v="0"/>
     <x v="2"/>
@@ -9691,7 +9768,7 @@
     <s v="Btwist"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -9701,7 +9778,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:53:13"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Palm Springs"/>
     <x v="1"/>
     <x v="3"/>
@@ -9709,7 +9786,7 @@
     <s v="Cart-wrapfull"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <m/>
     <s v="No"/>
@@ -9719,7 +9796,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:56:47"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Denver"/>
     <x v="0"/>
     <x v="1"/>
@@ -9727,7 +9804,7 @@
     <s v="Cart double pop full"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9737,7 +9814,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:57:14"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Kelowna"/>
     <x v="0"/>
     <x v="4"/>
@@ -9745,7 +9822,7 @@
     <s v="Slant Hook"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <m/>
     <s v="Yes"/>
@@ -9755,7 +9832,7 @@
   </r>
   <r>
     <d v="2016-04-07T17:58:31"/>
-    <s v="Uruguay"/>
+    <x v="39"/>
     <s v="Montevideo"/>
     <x v="0"/>
     <x v="4"/>
@@ -9763,7 +9840,7 @@
     <s v="Moonkick"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9773,7 +9850,7 @@
   </r>
   <r>
     <d v="2016-04-07T18:27:19"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Melbourne"/>
     <x v="0"/>
     <x v="2"/>
@@ -9781,7 +9858,7 @@
     <s v="double full"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9791,7 +9868,7 @@
   </r>
   <r>
     <d v="2016-04-07T18:29:23"/>
-    <s v="Mexico"/>
+    <x v="2"/>
     <s v="Monterrey"/>
     <x v="0"/>
     <x v="4"/>
@@ -9799,7 +9876,7 @@
     <s v="cart dub"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9809,7 +9886,7 @@
   </r>
   <r>
     <d v="2016-04-07T18:42:57"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Jose"/>
     <x v="0"/>
     <x v="0"/>
@@ -9817,7 +9894,7 @@
     <s v="cork"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <m/>
     <s v="Yes"/>
@@ -9827,7 +9904,7 @@
   </r>
   <r>
     <d v="2016-04-07T18:51:41"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Des Moines"/>
     <x v="0"/>
     <x v="0"/>
@@ -9835,7 +9912,7 @@
     <s v="Btwist Variations"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="Jacob Lanferman"/>
     <s v="Yes"/>
@@ -9845,7 +9922,7 @@
   </r>
   <r>
     <d v="2016-04-07T18:52:00"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="London"/>
     <x v="0"/>
     <x v="3"/>
@@ -9853,7 +9930,7 @@
     <s v="540 Kick"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <s v="N/a"/>
     <s v="No"/>
@@ -9863,7 +9940,7 @@
   </r>
   <r>
     <d v="2016-04-07T19:01:07"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Kansas City"/>
     <x v="0"/>
     <x v="0"/>
@@ -9871,7 +9948,7 @@
     <s v="All of them, I like to train every aspect of Martial Arts Tricking."/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="Depends on the week and or if injury or sickness is involved. I would always like to aim for atleast 10 hours a week with maintaining all other responsibilities"/>
+    <x v="18"/>
     <s v="Yes"/>
     <s v="Michael Guthrie"/>
     <s v="Yes"/>
@@ -9881,7 +9958,7 @@
   </r>
   <r>
     <d v="2016-04-07T19:04:27"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Philadelphia"/>
     <x v="0"/>
     <x v="0"/>
@@ -9889,7 +9966,7 @@
     <s v="Cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9899,7 +9976,7 @@
   </r>
   <r>
     <d v="2016-04-07T19:35:44"/>
-    <s v="Uruguay"/>
+    <x v="39"/>
     <s v="Montevideo"/>
     <x v="0"/>
     <x v="1"/>
@@ -9907,7 +9984,7 @@
     <s v="Aerial"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <m/>
     <s v="No"/>
@@ -9917,7 +9994,7 @@
   </r>
   <r>
     <d v="2016-04-07T19:42:50"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Ithaca"/>
     <x v="0"/>
     <x v="4"/>
@@ -9925,7 +10002,7 @@
     <s v="Anything Butterfly related, and hypers. "/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="organicdragon"/>
     <s v="Yes"/>
@@ -9935,7 +10012,7 @@
   </r>
   <r>
     <d v="2016-04-07T20:34:52"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Muenster"/>
     <x v="0"/>
     <x v="1"/>
@@ -9943,7 +10020,7 @@
     <s v="Envergado"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="8f Tricking"/>
     <s v="No"/>
@@ -9953,7 +10030,7 @@
   </r>
   <r>
     <d v="2016-04-07T20:40:46"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Aylesbury"/>
     <x v="0"/>
     <x v="0"/>
@@ -9961,7 +10038,7 @@
     <s v="Lazyboii"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -9971,7 +10048,7 @@
   </r>
   <r>
     <d v="2016-04-07T21:28:58"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Satellite Beach"/>
     <x v="0"/>
     <x v="2"/>
@@ -9979,7 +10056,7 @@
     <s v="boxcutter"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="michaeldiguilmitricking"/>
     <s v="Yes"/>
@@ -9989,7 +10066,7 @@
   </r>
   <r>
     <d v="2016-04-07T21:45:15"/>
-    <s v="Spain"/>
+    <x v="4"/>
     <s v="Jerez de la Frontera"/>
     <x v="0"/>
     <x v="1"/>
@@ -9997,7 +10074,7 @@
     <s v="touchdown raiz"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="langeloti"/>
     <s v="Yes"/>
@@ -10007,7 +10084,7 @@
   </r>
   <r>
     <d v="2016-04-07T21:47:23"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Bergen"/>
     <x v="0"/>
     <x v="4"/>
@@ -10015,7 +10092,7 @@
     <s v="Backflip"/>
     <s v="No"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCdnJwCLjrfNIjCrRALgPVSg"/>
     <s v="Yes"/>
@@ -10025,7 +10102,7 @@
   </r>
   <r>
     <d v="2016-04-07T23:44:55"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Ellington, CT"/>
     <x v="1"/>
     <x v="3"/>
@@ -10033,7 +10110,7 @@
     <s v="The next one"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Trick Dynamix "/>
     <s v="Yes"/>
@@ -10043,7 +10120,7 @@
   </r>
   <r>
     <d v="2016-04-08T00:12:43"/>
-    <s v="Finland"/>
+    <x v="26"/>
     <s v="Espoo"/>
     <x v="0"/>
     <x v="5"/>
@@ -10051,7 +10128,7 @@
     <s v="Wraps &amp; taks"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Henri Heikkinen"/>
     <s v="Yes"/>
@@ -10061,7 +10138,7 @@
   </r>
   <r>
     <d v="2016-04-08T00:48:37"/>
-    <s v="Brazil"/>
+    <x v="17"/>
     <s v="BRASÍLIA"/>
     <x v="0"/>
     <x v="4"/>
@@ -10069,7 +10146,7 @@
     <s v="Snapu"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Mongenatan"/>
     <s v="Yes"/>
@@ -10079,7 +10156,7 @@
   </r>
   <r>
     <d v="2016-04-08T01:23:00"/>
-    <s v="Greece"/>
+    <x v="27"/>
     <s v="Heraklion"/>
     <x v="0"/>
     <x v="3"/>
@@ -10087,7 +10164,7 @@
     <s v="B-Twist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Pepemakis"/>
     <s v="No"/>
@@ -10097,7 +10174,7 @@
   </r>
   <r>
     <d v="2016-04-08T01:53:56"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Luis Obispo"/>
     <x v="1"/>
     <x v="2"/>
@@ -10105,7 +10182,7 @@
     <s v="aerials"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10115,7 +10192,7 @@
   </r>
   <r>
     <d v="2016-04-08T02:55:42"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Sarpsborg"/>
     <x v="0"/>
     <x v="2"/>
@@ -10123,7 +10200,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="1-2 now, used to be 6-8, but injuries man..."/>
+    <x v="19"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10133,7 +10210,7 @@
   </r>
   <r>
     <d v="2016-04-08T02:56:46"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Sheffield"/>
     <x v="0"/>
     <x v="1"/>
@@ -10141,7 +10218,7 @@
     <s v="Sideswipe"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="Akashmash"/>
     <s v="Yes"/>
@@ -10151,7 +10228,7 @@
   </r>
   <r>
     <d v="2016-04-08T03:18:36"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Seattle"/>
     <x v="0"/>
     <x v="4"/>
@@ -10159,7 +10236,7 @@
     <s v="Dubs"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <m/>
     <s v="Yes"/>
@@ -10169,7 +10246,7 @@
   </r>
   <r>
     <d v="2016-04-08T03:27:39"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Hamar"/>
     <x v="0"/>
     <x v="1"/>
@@ -10177,7 +10254,7 @@
     <s v="B-Twist Round"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="Henrik Christoffersen"/>
     <s v="Yes"/>
@@ -10187,7 +10264,7 @@
   </r>
   <r>
     <d v="2016-04-08T03:37:49"/>
-    <s v="Austria"/>
+    <x v="20"/>
     <s v="Linz"/>
     <x v="0"/>
     <x v="1"/>
@@ -10195,7 +10272,7 @@
     <s v="TD-Raiz"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10205,7 +10282,7 @@
   </r>
   <r>
     <d v="2016-04-08T03:48:34"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="California/Texas"/>
     <x v="0"/>
     <x v="3"/>
@@ -10213,7 +10290,7 @@
     <s v="Jacknife"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="No longer training daily"/>
+    <x v="20"/>
     <s v="Yes"/>
     <s v="tagalian"/>
     <s v="Yes"/>
@@ -10223,7 +10300,7 @@
   </r>
   <r>
     <d v="2016-04-08T03:51:30"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Francisco"/>
     <x v="0"/>
     <x v="4"/>
@@ -10231,7 +10308,7 @@
     <s v="one-hand cart-twist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -10241,7 +10318,7 @@
   </r>
   <r>
     <d v="2016-04-08T03:52:48"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Hildesheim"/>
     <x v="0"/>
     <x v="3"/>
@@ -10249,7 +10326,7 @@
     <s v="Shuriken cork"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="rutrickz"/>
     <s v="No"/>
@@ -10259,7 +10336,7 @@
   </r>
   <r>
     <d v="2016-04-08T03:57:33"/>
-    <s v="Romania"/>
+    <x v="41"/>
     <s v="Constanta"/>
     <x v="0"/>
     <x v="3"/>
@@ -10267,7 +10344,7 @@
     <s v="i don`t have one"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="94maryan"/>
     <s v="No"/>
@@ -10277,7 +10354,7 @@
   </r>
   <r>
     <d v="2016-04-08T04:42:46"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Karlsruhe"/>
     <x v="0"/>
     <x v="4"/>
@@ -10285,7 +10362,7 @@
     <s v="Shuriken Cork"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="Dometricking"/>
     <s v="Yes"/>
@@ -10295,7 +10372,7 @@
   </r>
   <r>
     <d v="2016-04-08T05:35:59"/>
-    <s v="Israel"/>
+    <x v="31"/>
     <s v="Rishon Le Zion"/>
     <x v="0"/>
     <x v="4"/>
@@ -10303,7 +10380,7 @@
     <s v="cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10313,7 +10390,7 @@
   </r>
   <r>
     <d v="2016-04-08T05:38:02"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Hamburg"/>
     <x v="0"/>
     <x v="1"/>
@@ -10321,7 +10398,7 @@
     <s v="all swings"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/BenDzPk"/>
     <s v="No"/>
@@ -10331,7 +10408,7 @@
   </r>
   <r>
     <d v="2016-04-08T05:43:57"/>
-    <s v="India"/>
+    <x v="25"/>
     <s v="Aizawl"/>
     <x v="0"/>
     <x v="1"/>
@@ -10339,7 +10416,7 @@
     <s v="Butterfly Twists"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -10349,7 +10426,7 @@
   </r>
   <r>
     <d v="2016-04-08T05:48:02"/>
-    <s v="Hong Kong"/>
+    <x v="42"/>
     <s v="Hong Kong"/>
     <x v="0"/>
     <x v="0"/>
@@ -10357,7 +10434,7 @@
     <s v="Atwist"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -10367,7 +10444,7 @@
   </r>
   <r>
     <d v="2016-04-08T06:20:18"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Hamburg"/>
     <x v="0"/>
     <x v="1"/>
@@ -10375,7 +10452,7 @@
     <s v="full para"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="TheRonny002"/>
     <s v="No"/>
@@ -10385,7 +10462,7 @@
   </r>
   <r>
     <d v="2016-04-08T07:14:17"/>
-    <s v="Denmark"/>
+    <x v="43"/>
     <s v="Aarhus"/>
     <x v="0"/>
     <x v="0"/>
@@ -10393,7 +10470,7 @@
     <s v="full-dlegs and hyperhooks"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/user/xitondk"/>
     <s v="Yes"/>
@@ -10403,7 +10480,7 @@
   </r>
   <r>
     <d v="2016-04-08T07:22:55"/>
-    <s v="Italy"/>
+    <x v="30"/>
     <s v="Venice"/>
     <x v="0"/>
     <x v="0"/>
@@ -10411,7 +10488,7 @@
     <s v="wrap full punch triple full snapu"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -10421,7 +10498,7 @@
   </r>
   <r>
     <d v="2016-04-08T07:40:42"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Saarbrücken"/>
     <x v="0"/>
     <x v="1"/>
@@ -10429,7 +10506,7 @@
     <s v="Frontflip"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10439,7 +10516,7 @@
   </r>
   <r>
     <d v="2016-04-08T08:01:36"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Karlsruhe"/>
     <x v="0"/>
     <x v="4"/>
@@ -10447,7 +10524,7 @@
     <s v="Cart Full Double Leg Twist"/>
     <s v="No"/>
     <s v="6-10"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="PeTricking"/>
     <s v="Yes"/>
@@ -10457,7 +10534,7 @@
   </r>
   <r>
     <d v="2016-04-08T08:14:35"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="El Paso"/>
     <x v="0"/>
     <x v="0"/>
@@ -10465,7 +10542,7 @@
     <s v="C9"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10475,7 +10552,7 @@
   </r>
   <r>
     <d v="2016-04-08T08:28:19"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Leicester"/>
     <x v="0"/>
     <x v="4"/>
@@ -10483,7 +10560,7 @@
     <s v="B twist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10493,7 +10570,7 @@
   </r>
   <r>
     <d v="2016-04-08T08:40:20"/>
-    <s v="Finland"/>
+    <x v="26"/>
     <s v="Tampere"/>
     <x v="0"/>
     <x v="5"/>
@@ -10501,7 +10578,7 @@
     <s v="jacknife"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="Vellusta, Riku Rikkonen, Teamunito"/>
     <s v="No"/>
@@ -10511,7 +10588,7 @@
   </r>
   <r>
     <d v="2016-04-08T08:50:10"/>
-    <s v="Israel"/>
+    <x v="31"/>
     <s v="HAIFA"/>
     <x v="0"/>
     <x v="4"/>
@@ -10519,7 +10596,7 @@
     <s v="WEBSTER"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="DANIEL YULZARI"/>
     <s v="Yes"/>
@@ -10529,7 +10606,7 @@
   </r>
   <r>
     <d v="2016-04-08T09:07:18"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Fayetteville"/>
     <x v="0"/>
     <x v="0"/>
@@ -10537,7 +10614,7 @@
     <s v="Full dlegtwist "/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Malik Shepherd"/>
     <s v="Yes"/>
@@ -10547,7 +10624,7 @@
   </r>
   <r>
     <d v="2016-04-08T10:02:34"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Denver, Colorado"/>
     <x v="0"/>
     <x v="0"/>
@@ -10555,7 +10632,7 @@
     <s v="Grand master swipe"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Hunter Stewart"/>
     <s v="Yes"/>
@@ -10565,7 +10642,7 @@
   </r>
   <r>
     <d v="2016-04-08T11:13:34"/>
-    <s v="Belgium"/>
+    <x v="44"/>
     <s v="Brussels"/>
     <x v="0"/>
     <x v="0"/>
@@ -10573,7 +10650,7 @@
     <s v="Nicely feelingTDR/Flash kick/c9"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -10583,7 +10660,7 @@
   </r>
   <r>
     <d v="2016-04-08T11:29:40"/>
-    <s v="Jamaica"/>
+    <x v="45"/>
     <s v="Ocho Rios"/>
     <x v="0"/>
     <x v="1"/>
@@ -10591,7 +10668,7 @@
     <s v="aerial"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCNEQfUGMOdvYp_FeoS0Kowg?nohtml5=False"/>
     <s v="Yes"/>
@@ -10601,7 +10678,7 @@
   </r>
   <r>
     <d v="2016-04-08T14:05:14"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Los Angeles "/>
     <x v="0"/>
     <x v="0"/>
@@ -10609,7 +10686,7 @@
     <s v="Shurikan"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="Spitfirektp"/>
     <s v="Yes"/>
@@ -10619,7 +10696,7 @@
   </r>
   <r>
     <d v="2016-04-08T18:00:22"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Palm Springs"/>
     <x v="0"/>
     <x v="1"/>
@@ -10627,7 +10704,7 @@
     <s v="Cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <m/>
     <s v="Yes"/>
@@ -10637,7 +10714,7 @@
   </r>
   <r>
     <d v="2016-04-08T19:10:48"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Phoenix"/>
     <x v="0"/>
     <x v="0"/>
@@ -10645,7 +10722,7 @@
     <s v="c720"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Gen Prodigies"/>
     <s v="Yes"/>
@@ -10655,7 +10732,7 @@
   </r>
   <r>
     <d v="2016-04-08T19:13:29"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Bergen"/>
     <x v="0"/>
     <x v="4"/>
@@ -10663,7 +10740,7 @@
     <s v="Fulltwist hook"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Espen Brun"/>
     <s v="Yes"/>
@@ -10673,7 +10750,7 @@
   </r>
   <r>
     <d v="2016-04-08T22:00:48"/>
-    <s v="Thailand"/>
+    <x v="40"/>
     <s v="Chiang Mai"/>
     <x v="0"/>
     <x v="0"/>
@@ -10681,7 +10758,7 @@
     <s v="Gumbi&amp;Raiz"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="No"/>
     <s v="Sarunyu.Jaruchart"/>
     <s v="No"/>
@@ -10691,7 +10768,7 @@
   </r>
   <r>
     <d v="2016-04-09T01:29:46"/>
-    <s v="Malaysia"/>
+    <x v="15"/>
     <s v="Petaling Jaya"/>
     <x v="0"/>
     <x v="0"/>
@@ -10699,7 +10776,7 @@
     <s v="Corkscrew"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCTgYLPp1OgnY_dN1x16PgBA"/>
     <s v="Yes"/>
@@ -10709,7 +10786,7 @@
   </r>
   <r>
     <d v="2016-04-09T02:00:33"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Heath, Massachusetts"/>
     <x v="0"/>
     <x v="4"/>
@@ -10717,7 +10794,7 @@
     <s v="Rodeo Cork"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="Youtube.com/Garbagedevon"/>
     <s v="No"/>
@@ -10727,7 +10804,7 @@
   </r>
   <r>
     <d v="2016-04-09T05:28:51"/>
-    <s v="Lithuania"/>
+    <x v="7"/>
     <s v="Utena"/>
     <x v="0"/>
     <x v="4"/>
@@ -10735,7 +10812,7 @@
     <s v="flash-kick"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Super Marty"/>
     <s v="No"/>
@@ -10745,7 +10822,7 @@
   </r>
   <r>
     <d v="2016-04-09T05:50:54"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Colorado Springs"/>
     <x v="0"/>
     <x v="3"/>
@@ -10753,7 +10830,7 @@
     <s v="Butterfly Twist"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="I usually only tricking during school breaks or when I visit home for the weekend (Ex: Winter Break, etc)"/>
+    <x v="21"/>
     <s v="Yes"/>
     <s v="http://www.youtube.com/c/RodneyHooksJr"/>
     <s v="Yes"/>
@@ -10763,7 +10840,7 @@
   </r>
   <r>
     <d v="2016-04-09T15:26:40"/>
-    <s v="Israel"/>
+    <x v="31"/>
     <s v="Rosh Haayin"/>
     <x v="0"/>
     <x v="2"/>
@@ -10771,7 +10848,7 @@
     <s v="boxcutter"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10781,7 +10858,7 @@
   </r>
   <r>
     <d v="2016-04-09T18:11:10"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Waterloo"/>
     <x v="0"/>
     <x v="0"/>
@@ -10789,7 +10866,7 @@
     <s v="cart full"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -10799,7 +10876,7 @@
   </r>
   <r>
     <d v="2016-04-09T18:26:37"/>
-    <s v="Portugal"/>
+    <x v="46"/>
     <s v="Sintra"/>
     <x v="0"/>
     <x v="0"/>
@@ -10807,7 +10884,7 @@
     <n v="540"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="Casually, 1,5 hours a week"/>
+    <x v="22"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -10817,7 +10894,7 @@
   </r>
   <r>
     <d v="2016-04-09T19:05:31"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Espelkamp"/>
     <x v="0"/>
     <x v="4"/>
@@ -10825,7 +10902,7 @@
     <s v="Full Doubleleg and Double Full"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="renetricking"/>
     <s v="Yes"/>
@@ -10835,7 +10912,7 @@
   </r>
   <r>
     <d v="2016-04-09T20:37:49"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Manalapan, New Jersey"/>
     <x v="0"/>
     <x v="0"/>
@@ -10843,7 +10920,7 @@
     <s v="Webster"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Mike Hom"/>
     <s v="Yes"/>
@@ -10853,7 +10930,7 @@
   </r>
   <r>
     <d v="2016-04-10T02:05:14"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Hannover"/>
     <x v="0"/>
     <x v="4"/>
@@ -10861,7 +10938,7 @@
     <s v="Aerial/ Butterfly"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -10871,7 +10948,7 @@
   </r>
   <r>
     <d v="2016-04-10T02:11:46"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Rockhampton"/>
     <x v="0"/>
     <x v="4"/>
@@ -10879,7 +10956,7 @@
     <s v="DUBDUB"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="Yes"/>
     <s v="Hayden Truelson"/>
     <s v="Yes"/>
@@ -10889,7 +10966,7 @@
   </r>
   <r>
     <d v="2016-04-10T04:55:51"/>
-    <s v="Greece"/>
+    <x v="27"/>
     <s v="Athens"/>
     <x v="0"/>
     <x v="1"/>
@@ -10897,7 +10974,7 @@
     <s v="b-twist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="xaris petritsopoulos"/>
     <s v="Yes"/>
@@ -10907,7 +10984,7 @@
   </r>
   <r>
     <d v="2016-04-10T07:46:06"/>
-    <s v="Israel"/>
+    <x v="31"/>
     <s v="Modiin"/>
     <x v="0"/>
     <x v="9"/>
@@ -10915,7 +10992,7 @@
     <s v="Snapuswpies and dubs variations"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="I have my account royi tricking for my own videos and i have my teams account: The Tricksketeers"/>
     <s v="Yes"/>
@@ -10925,7 +11002,7 @@
   </r>
   <r>
     <d v="2016-04-10T07:47:47"/>
-    <s v="Israel"/>
+    <x v="31"/>
     <s v="modiin"/>
     <x v="0"/>
     <x v="9"/>
@@ -10933,7 +11010,7 @@
     <s v="Snapuswipes and Dubs variations"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="i have my account royi tricking and my teams account The Tricksketeers"/>
     <s v="Yes"/>
@@ -10943,7 +11020,7 @@
   </r>
   <r>
     <d v="2016-04-10T08:45:15"/>
-    <s v="Sweden"/>
+    <x v="10"/>
     <s v="Lycksele"/>
     <x v="0"/>
     <x v="4"/>
@@ -10951,7 +11028,7 @@
     <s v="Flashkick, sideflip or double btwist"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="Sebastian Tellström"/>
     <s v="Yes"/>
@@ -10961,7 +11038,7 @@
   </r>
   <r>
     <d v="2016-04-10T10:01:03"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Niagara Falls"/>
     <x v="0"/>
     <x v="0"/>
@@ -10969,7 +11046,7 @@
     <s v="Ch9"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -10979,7 +11056,7 @@
   </r>
   <r>
     <d v="2016-04-10T10:13:35"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Bergen"/>
     <x v="0"/>
     <x v="3"/>
@@ -10987,7 +11064,7 @@
     <s v="Scoot Dub or 540 kicks"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="10-12"/>
+    <x v="4"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCuhAp5lh7RRTLhENUv_axmg"/>
     <s v="Yes"/>
@@ -10997,7 +11074,7 @@
   </r>
   <r>
     <d v="2016-04-10T12:48:02"/>
-    <s v="Argentina"/>
+    <x v="34"/>
     <s v="Ciudad Autónoma de Buenos Aires"/>
     <x v="0"/>
     <x v="1"/>
@@ -11005,7 +11082,7 @@
     <s v="cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <m/>
     <s v="No"/>
@@ -11015,7 +11092,7 @@
   </r>
   <r>
     <d v="2016-04-10T16:24:23"/>
-    <s v="Germany"/>
+    <x v="11"/>
     <s v="Frankfurt"/>
     <x v="0"/>
     <x v="3"/>
@@ -11023,7 +11100,7 @@
     <s v="e-kick!"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -11033,7 +11110,7 @@
   </r>
   <r>
     <d v="2016-04-10T17:35:59"/>
-    <s v="Sweden"/>
+    <x v="10"/>
     <s v="Tierp"/>
     <x v="0"/>
     <x v="4"/>
@@ -11041,7 +11118,7 @@
     <s v="Doubleleg Hook"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <m/>
     <s v="No"/>
@@ -11051,7 +11128,7 @@
   </r>
   <r>
     <d v="2016-04-10T18:26:40"/>
-    <s v="United Kingdom"/>
+    <x v="23"/>
     <s v="Belfast"/>
     <x v="0"/>
     <x v="1"/>
@@ -11059,7 +11136,7 @@
     <s v="TDR cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCN_tIKTtja1R3f1dnA-cetg"/>
     <s v="Yes"/>
@@ -11069,7 +11146,7 @@
   </r>
   <r>
     <d v="2016-04-10T22:06:43"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Centereach, New York"/>
     <x v="0"/>
     <x v="4"/>
@@ -11077,7 +11154,7 @@
     <s v="Double corkscrew"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -11087,7 +11164,7 @@
   </r>
   <r>
     <d v="2016-04-11T01:48:04"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Dimas"/>
     <x v="0"/>
     <x v="0"/>
@@ -11095,7 +11172,7 @@
     <n v="540"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCyH0McHO7t0Mqa9TE2-2lXw"/>
     <s v="Yes"/>
@@ -11105,7 +11182,7 @@
   </r>
   <r>
     <d v="2016-04-11T08:12:06"/>
-    <s v="France"/>
+    <x v="24"/>
     <s v="Rennes"/>
     <x v="0"/>
     <x v="3"/>
@@ -11113,7 +11190,7 @@
     <s v="b-twist"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCU9Zb8Eul5ytWd-ureSzLOg"/>
     <s v="No"/>
@@ -11123,7 +11200,7 @@
   </r>
   <r>
     <d v="2016-04-11T09:16:24"/>
-    <s v="Australia"/>
+    <x v="12"/>
     <s v="Melbourne"/>
     <x v="0"/>
     <x v="0"/>
@@ -11131,7 +11208,7 @@
     <s v="Jackknife or C10"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="4-6"/>
+    <x v="1"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -11141,7 +11218,7 @@
   </r>
   <r>
     <d v="2016-04-11T15:04:47"/>
-    <s v="Estonia"/>
+    <x v="47"/>
     <s v="Viljandi"/>
     <x v="0"/>
     <x v="4"/>
@@ -11149,7 +11226,7 @@
     <s v="Cheat 720 kick"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="2h tricks 3h calisthenics"/>
+    <x v="23"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCXsijQ6SOjTGcGIYq6e7s2g"/>
     <s v="No"/>
@@ -11159,7 +11236,7 @@
   </r>
   <r>
     <d v="2016-04-11T16:00:25"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Ottawa"/>
     <x v="0"/>
     <x v="1"/>
@@ -11167,7 +11244,7 @@
     <s v="Full snapu"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCdiEyl4TBPR3ROBAdZikhUw"/>
     <s v="Yes"/>
@@ -11177,7 +11254,7 @@
   </r>
   <r>
     <d v="2016-04-11T17:07:34"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Sarpsborg"/>
     <x v="0"/>
     <x v="2"/>
@@ -11185,7 +11262,7 @@
     <s v="Full Hyperhook"/>
     <s v="Yes"/>
     <s v="6-10"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -11195,7 +11272,7 @@
   </r>
   <r>
     <d v="2016-04-11T20:45:30"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="San Antonio"/>
     <x v="0"/>
     <x v="9"/>
@@ -11203,7 +11280,7 @@
     <s v="sideswipe"/>
     <s v="No"/>
     <s v="i plan to attend my 1st this summer"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCeI7osq5lcxs6Ow2EX9AItw"/>
     <s v="Yes"/>
@@ -11213,7 +11290,7 @@
   </r>
   <r>
     <d v="2016-04-11T22:21:21"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="Vaudreuil-Dorion, QC. Canada."/>
     <x v="0"/>
     <x v="0"/>
@@ -11221,7 +11298,7 @@
     <s v="Jackknife"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="6-8"/>
+    <x v="3"/>
     <s v="Yes"/>
     <s v="https://www.youtube.com/channel/UCUw3Fq61hTRNlly2SjUP-jA?spfreload=5"/>
     <s v="Yes"/>
@@ -11231,7 +11308,7 @@
   </r>
   <r>
     <d v="2016-04-11T22:22:58"/>
-    <s v="New Zealand"/>
+    <x v="21"/>
     <s v="Palmerston North"/>
     <x v="0"/>
     <x v="4"/>
@@ -11239,7 +11316,7 @@
     <s v="Cork"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -11249,7 +11326,7 @@
   </r>
   <r>
     <d v="2016-04-12T00:41:25"/>
-    <s v="United States (USA)"/>
+    <x v="0"/>
     <s v="Streetsboro"/>
     <x v="0"/>
     <x v="4"/>
@@ -11257,7 +11334,7 @@
     <s v="Cork snapu"/>
     <s v="Yes"/>
     <s v="10+"/>
-    <s v="8-10"/>
+    <x v="2"/>
     <s v="Yes"/>
     <s v="ljohnthedreamerl"/>
     <s v="Yes"/>
@@ -11267,7 +11344,7 @@
   </r>
   <r>
     <d v="2016-04-12T02:08:48"/>
-    <s v="Canada"/>
+    <x v="13"/>
     <s v="montreal"/>
     <x v="0"/>
     <x v="3"/>
@@ -11275,7 +11352,7 @@
     <s v="cork"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="No"/>
     <m/>
     <s v="Yes"/>
@@ -11285,7 +11362,7 @@
   </r>
   <r>
     <d v="2016-04-12T04:08:55"/>
-    <s v="Norway"/>
+    <x v="28"/>
     <s v="Hønefoss"/>
     <x v="0"/>
     <x v="4"/>
@@ -11293,7 +11370,7 @@
     <s v="aerial"/>
     <s v="Yes"/>
     <s v="20+"/>
-    <s v="2-4"/>
+    <x v="0"/>
     <s v="Yes"/>
     <s v="https://m.youtube.com/user/zorcs2"/>
     <s v="Yes"/>
@@ -11303,7 +11380,7 @@
   </r>
   <r>
     <d v="2016-04-12T04:25:48"/>
-    <s v="Netherlands"/>
+    <x v="9"/>
     <s v="Rotterdam"/>
     <x v="0"/>
     <x v="1"/>
@@ -11311,7 +11388,7 @@
     <n v="540"/>
     <s v="Yes"/>
     <s v="1-5"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -11321,7 +11398,7 @@
   </r>
   <r>
     <d v="2016-04-12T09:23:20"/>
-    <s v="Slovakia"/>
+    <x v="48"/>
     <s v="Brezno"/>
     <x v="0"/>
     <x v="4"/>
@@ -11329,7 +11406,7 @@
     <s v="360 Roundhouse kick"/>
     <s v="No"/>
     <n v="0"/>
-    <s v="1-2"/>
+    <x v="8"/>
     <s v="No"/>
     <m/>
     <s v="No"/>
@@ -11341,7 +11418,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="164" showAll="0"/>
@@ -11401,7 +11478,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="164" showAll="0"/>
@@ -11537,7 +11614,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="164" showAll="0"/>
@@ -11629,6 +11706,190 @@
     </i>
     <i>
       <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of What country are you from?" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="25">
+        <item x="6"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="25">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i t="grand">
       <x/>
@@ -12300,7 +12561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G14" sqref="A4:G14"/>
     </sheetView>
   </sheetViews>
@@ -12604,11 +12865,815 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="115.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="115.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>1738</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5</v>
+      </c>
+      <c r="H13" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>29</v>
+      </c>
+      <c r="F15" s="6">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B29" s="6">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6">
+        <v>92</v>
+      </c>
+      <c r="D29" s="6">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6">
+        <v>104</v>
+      </c>
+      <c r="F29" s="6">
+        <v>56</v>
+      </c>
+      <c r="G29" s="6">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P327"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E328" sqref="E328"/>
+      <selection pane="bottomLeft" activeCell="J318" sqref="J318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14277,8 +15342,8 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="J38" s="2">
-        <v>1738</v>
+      <c r="J38" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>22</v>
@@ -14503,8 +15568,8 @@
       <c r="I43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>203</v>
+      <c r="J43" s="2">
+        <v>13</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>22</v>
@@ -15269,8 +16334,8 @@
       <c r="I60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>277</v>
+      <c r="J60" s="2">
+        <v>20</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>22</v>
@@ -16853,8 +17918,8 @@
       <c r="I96" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>414</v>
+      <c r="J96" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>22</v>
@@ -17341,7 +18406,7 @@
         <v>52</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>22</v>
@@ -22016,8 +23081,8 @@
       <c r="I213" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>817</v>
+      <c r="J213" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>33</v>
@@ -23453,8 +24518,8 @@
       <c r="I246" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>915</v>
+      <c r="J246" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="K246" s="2" t="s">
         <v>22</v>
@@ -24084,8 +25149,8 @@
       <c r="I260" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>969</v>
+      <c r="J260" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="K260" s="2" t="s">
         <v>33</v>
@@ -24311,7 +25376,7 @@
         <v>31</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>988</v>
+        <v>67</v>
       </c>
       <c r="K265" s="2" t="s">
         <v>22</v>
@@ -25657,8 +26722,8 @@
       <c r="I295" s="2">
         <v>0</v>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>1101</v>
+      <c r="J295" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="K295" s="2" t="s">
         <v>22</v>
@@ -25786,8 +26851,8 @@
       <c r="I298" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>1110</v>
+      <c r="J298" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="K298" s="2" t="s">
         <v>33</v>
@@ -26631,8 +27696,8 @@
       <c r="I317" s="2">
         <v>0</v>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>1184</v>
+      <c r="J317" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="K317" s="2" t="s">
         <v>22</v>
@@ -27152,7 +28217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>

--- a/data/Tricking Data Visualization Project Survey (Responses).xlsx
+++ b/data/Tricking Data Visualization Project Survey (Responses).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mikael/Documents/TrickingData/data/"/>
@@ -15,17 +15,16 @@
     <sheet name="Gender" sheetId="4" r:id="rId1"/>
     <sheet name="Discovery to Number of Years" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId5"/>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId6"/>
-    <sheet name="Most Popular Tricks" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId5"/>
+    <sheet name="Most Popular Tricks" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Form Responses 1'!$A$1:$P$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Form Responses 1'!$A$1:$P$327</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId8"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="1273">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3852,6 +3851,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -12865,285 +12867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="115.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13667,11 +13394,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J318" sqref="J318"/>
     </sheetView>
@@ -28217,12 +27944,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28232,9 +27959,10 @@
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1219</v>
       </c>
@@ -28259,8 +27987,14 @@
       <c r="K1" s="14" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1267</v>
       </c>
@@ -28285,8 +28019,14 @@
       <c r="K2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>540</v>
       </c>
@@ -28311,8 +28051,14 @@
       <c r="K3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M3" t="s">
+        <v>436</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>534</v>
       </c>
@@ -28337,8 +28083,14 @@
       <c r="K4" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1221</v>
       </c>
@@ -28363,8 +28115,14 @@
       <c r="K5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>540</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -28389,8 +28147,14 @@
       <c r="K6" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M6" t="s">
+        <v>534</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -28415,8 +28179,14 @@
       <c r="K7" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1222</v>
       </c>
@@ -28441,8 +28211,14 @@
       <c r="K8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1254</v>
       </c>
@@ -28467,8 +28243,14 @@
       <c r="K9" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>577</v>
       </c>
@@ -28493,8 +28275,14 @@
       <c r="K10" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>1223</v>
       </c>
@@ -28519,8 +28307,14 @@
       <c r="K11" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M11" t="s">
+        <v>449</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>1224</v>
       </c>
@@ -28545,8 +28339,14 @@
       <c r="K12" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M12" t="s">
+        <v>372</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>1225</v>
       </c>
@@ -28571,8 +28371,14 @@
       <c r="K13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M13" t="s">
+        <v>190</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>145</v>
       </c>
@@ -28591,8 +28397,14 @@
       <c r="H14" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M14" t="s">
+        <v>477</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>1246</v>
       </c>
@@ -28612,7 +28424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>1247</v>
       </c>

--- a/data/Tricking Data Visualization Project Survey (Responses).xlsx
+++ b/data/Tricking Data Visualization Project Survey (Responses).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gender" sheetId="4" r:id="rId1"/>
@@ -17,14 +17,16 @@
     <sheet name="Sheet9" sheetId="10" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId4"/>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId5"/>
-    <sheet name="Most Popular Tricks" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId7"/>
+    <sheet name="Most Popular Tricks" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Form Responses 1'!$A$1:$P$327</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4814" uniqueCount="1273">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3990,7 +3992,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4593,11 +4594,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2092705856"/>
-        <c:axId val="-2117830368"/>
+        <c:axId val="2116234592"/>
+        <c:axId val="-2102208928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2092705856"/>
+        <c:axId val="2116234592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4640,7 +4641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117830368"/>
+        <c:crossAx val="-2102208928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4648,7 +4649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117830368"/>
+        <c:axId val="-2102208928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4699,7 +4700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092705856"/>
+        <c:crossAx val="2116234592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4713,7 +4714,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11420,7 +11420,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="164" showAll="0"/>
@@ -11480,7 +11480,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="164" showAll="0"/>
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="164" showAll="0"/>
@@ -11752,7 +11752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="164" showAll="0"/>
@@ -13398,9 +13398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P327"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J318" sqref="J318"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27946,9 +27946,2071 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A181"/>
+  <sheetViews>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="3" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A18" r:id="rId3"/>
+    <hyperlink ref="A20" r:id="rId4"/>
+    <hyperlink ref="A22" r:id="rId5"/>
+    <hyperlink ref="A36" r:id="rId6"/>
+    <hyperlink ref="A37" r:id="rId7"/>
+    <hyperlink ref="A38" r:id="rId8"/>
+    <hyperlink ref="A39" r:id="rId9"/>
+    <hyperlink ref="A48" r:id="rId10"/>
+    <hyperlink ref="A50" r:id="rId11"/>
+    <hyperlink ref="A51" r:id="rId12"/>
+    <hyperlink ref="A53" r:id="rId13"/>
+    <hyperlink ref="A55" r:id="rId14"/>
+    <hyperlink ref="A57" r:id="rId15"/>
+    <hyperlink ref="A58" r:id="rId16"/>
+    <hyperlink ref="A59" r:id="rId17"/>
+    <hyperlink ref="A61" r:id="rId18"/>
+    <hyperlink ref="A63" r:id="rId19"/>
+    <hyperlink ref="A66" r:id="rId20"/>
+    <hyperlink ref="A68" r:id="rId21"/>
+    <hyperlink ref="A80" r:id="rId22"/>
+    <hyperlink ref="A81" r:id="rId23"/>
+    <hyperlink ref="A92" r:id="rId24"/>
+    <hyperlink ref="A94" r:id="rId25"/>
+    <hyperlink ref="A95" r:id="rId26"/>
+    <hyperlink ref="A97" r:id="rId27"/>
+    <hyperlink ref="A112" r:id="rId28"/>
+    <hyperlink ref="A113" r:id="rId29"/>
+    <hyperlink ref="A120" r:id="rId30"/>
+    <hyperlink ref="A127" r:id="rId31"/>
+    <hyperlink ref="A137" r:id="rId32"/>
+    <hyperlink ref="A148" r:id="rId33"/>
+    <hyperlink ref="A150" r:id="rId34"/>
+    <hyperlink ref="A156" r:id="rId35"/>
+    <hyperlink ref="A161" r:id="rId36"/>
+    <hyperlink ref="A162" r:id="rId37"/>
+    <hyperlink ref="A164" r:id="rId38"/>
+    <hyperlink ref="A172" r:id="rId39"/>
+    <hyperlink ref="A173" r:id="rId40"/>
+    <hyperlink ref="A174" r:id="rId41"/>
+    <hyperlink ref="A175" r:id="rId42"/>
+    <hyperlink ref="A176" r:id="rId43"/>
+    <hyperlink ref="A177" r:id="rId44"/>
+    <hyperlink ref="A178" r:id="rId45"/>
+    <hyperlink ref="A179" r:id="rId46"/>
+    <hyperlink ref="A181" r:id="rId47"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" s="3" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A46" r:id="rId1"/>
+    <hyperlink ref="A55" r:id="rId2"/>
+    <hyperlink ref="A57" r:id="rId3"/>
+    <hyperlink ref="A60" r:id="rId4"/>
+    <hyperlink ref="A79" r:id="rId5"/>
+    <hyperlink ref="A106" r:id="rId6"/>
+    <hyperlink ref="A127" r:id="rId7"/>
+    <hyperlink ref="A134" r:id="rId8"/>
+    <hyperlink ref="A139" r:id="rId9"/>
+    <hyperlink ref="A165" r:id="rId10"/>
+    <hyperlink ref="A178" r:id="rId11"/>
+    <hyperlink ref="A186" r:id="rId12"/>
+    <hyperlink ref="A190" r:id="rId13"/>
+    <hyperlink ref="A191" r:id="rId14"/>
+    <hyperlink ref="A207" r:id="rId15"/>
+    <hyperlink ref="A209" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>

--- a/data/Tricking Data Visualization Project Survey (Responses).xlsx
+++ b/data/Tricking Data Visualization Project Survey (Responses).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Gender" sheetId="4" r:id="rId1"/>
@@ -17,16 +17,17 @@
     <sheet name="Sheet9" sheetId="10" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId4"/>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId7"/>
-    <sheet name="Most Popular Tricks" sheetId="5" r:id="rId8"/>
+    <sheet name="YouTube Accounts" sheetId="13" r:id="rId6"/>
+    <sheet name="Instagram Accounts" sheetId="14" r:id="rId7"/>
+    <sheet name="Emails" sheetId="15" r:id="rId8"/>
+    <sheet name="Most Popular Tricks" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Form Responses 1'!$A$1:$P$327</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4814" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4999" uniqueCount="1273">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4594,11 +4595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2116234592"/>
-        <c:axId val="-2102208928"/>
+        <c:axId val="2116681168"/>
+        <c:axId val="2091967056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116234592"/>
+        <c:axId val="2116681168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4641,7 +4642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102208928"/>
+        <c:crossAx val="2091967056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4649,7 +4650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102208928"/>
+        <c:axId val="2091967056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4700,7 +4701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116234592"/>
+        <c:crossAx val="2116681168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13398,9 +13399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P327"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N327"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P326" sqref="P3:P326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28917,7 +28918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
@@ -30008,6 +30009,949 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A185"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A177" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
